--- a/Documents/Cashiers Report Format_1.xlsx
+++ b/Documents/Cashiers Report Format_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baluy\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6678DC02-2ED0-4D46-9A4D-D59884438468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5192CB-C997-4E00-8F78-B6D2ED42B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="December 1-1" sheetId="1" r:id="rId1"/>
@@ -1165,363 +1165,22 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1531,40 +1190,13 @@
     <xf numFmtId="4" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1574,19 +1206,135 @@
     <xf numFmtId="2" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,60 +1343,479 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1656,173 +1823,6 @@
     <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XES873"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2126,19 +2126,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -2281,17 +2281,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="92"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="41"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="130"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2306,31 +2306,31 @@
       <c r="Y6" s="39"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="195" t="s">
+      <c r="B7" s="157"/>
+      <c r="C7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="193" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="198" t="s">
+      <c r="H7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="199" t="s">
+      <c r="I7" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="200" t="s">
+      <c r="J7" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="194"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -2345,27 +2345,27 @@
       <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="195" t="s">
+      <c r="A8" s="215"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="203" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="204"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="205" t="s">
+      <c r="F8" s="137"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="206" t="s">
+      <c r="I8" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="207"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -2380,25 +2380,25 @@
       <c r="Y8" s="39"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="210">
+      <c r="B9" s="96">
         <v>1</v>
       </c>
-      <c r="C9" s="211"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="171" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -2413,25 +2413,25 @@
       <c r="Y9" s="39"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="210">
+      <c r="B10" s="96">
         <v>2</v>
       </c>
-      <c r="C10" s="217"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="171" t="s">
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="171"/>
+      <c r="M10" s="141"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2448,25 +2448,25 @@
       <c r="Y10" s="39"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="209" t="s">
+      <c r="A11" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="210">
+      <c r="B11" s="96">
         <v>3</v>
       </c>
-      <c r="C11" s="217"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="171" t="s">
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="171"/>
+      <c r="M11" s="141"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -2483,23 +2483,25 @@
       <c r="Y11" s="39"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="210">
+      <c r="B12" s="96">
         <v>4</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="100">
+        <v>3</v>
+      </c>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -2514,23 +2516,25 @@
       <c r="Y12" s="39"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="209" t="s">
+      <c r="A13" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="210">
+      <c r="B13" s="96">
         <v>5</v>
       </c>
-      <c r="C13" s="219"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="100">
+        <v>3</v>
+      </c>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -2545,23 +2549,23 @@
       <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="210">
+      <c r="B14" s="96">
         <v>6</v>
       </c>
-      <c r="C14" s="219"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2576,24 +2580,24 @@
       <c r="Y14" s="39"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="226">
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="150">
         <f>SUM(J9:K14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="202"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -2608,19 +2612,19 @@
       <c r="Y15" s="39"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="227"/>
-      <c r="B16" s="228"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="231"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -2635,23 +2639,23 @@
       <c r="Y16" s="39"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="209" t="s">
+      <c r="A17" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="210">
+      <c r="B17" s="96">
         <v>1</v>
       </c>
-      <c r="C17" s="220"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2666,23 +2670,23 @@
       <c r="Y17" s="39"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="210">
+      <c r="B18" s="96">
         <v>2</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2697,21 +2701,21 @@
       <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="221" t="s">
+      <c r="A19" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="222"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -2728,19 +2732,19 @@
       <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="227"/>
-      <c r="B20" s="228"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2755,23 +2759,23 @@
       <c r="Y20" s="39"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="209" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="210">
+      <c r="B21" s="96">
         <v>1</v>
       </c>
-      <c r="C21" s="220"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2786,23 +2790,23 @@
       <c r="Y21" s="39"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="210">
+      <c r="B22" s="96">
         <v>2</v>
       </c>
-      <c r="C22" s="220"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
       <c r="N22" s="13"/>
       <c r="O22" s="48"/>
       <c r="P22" s="13"/>
@@ -2817,23 +2821,23 @@
       <c r="Y22" s="39"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="209" t="s">
+      <c r="A23" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="210">
+      <c r="B23" s="96">
         <v>3</v>
       </c>
-      <c r="C23" s="220"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2848,23 +2852,23 @@
       <c r="Y23" s="39"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="209" t="s">
+      <c r="A24" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="210">
+      <c r="B24" s="96">
         <v>4</v>
       </c>
-      <c r="C24" s="220"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -2879,23 +2883,23 @@
       <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="221" t="s">
+      <c r="A25" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="92"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2919,8 +2923,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2935,21 +2939,21 @@
       <c r="Y26" s="39"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="235" t="s">
+      <c r="A27" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="236"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
@@ -2964,19 +2968,19 @@
       <c r="Y27" s="39"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="202"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="144"/>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="13"/>
@@ -2993,25 +2997,25 @@
       <c r="Y28" s="39"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="241" t="s">
+      <c r="B29" s="223"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="242" t="s">
+      <c r="I29" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="243" t="s">
+      <c r="J29" s="226" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="194"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
@@ -3028,17 +3032,17 @@
       <c r="Y29" s="39"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="244"/>
-      <c r="B30" s="245"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="202"/>
+      <c r="A30" s="224"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="144"/>
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="55"/>
@@ -3055,17 +3059,17 @@
       <c r="Y30" s="39"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="248"/>
-      <c r="B31" s="249"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="253"/>
-      <c r="K31" s="202"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="144"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
@@ -3082,17 +3086,17 @@
       <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="248"/>
-      <c r="B32" s="249"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="197"/>
+      <c r="A32" s="160"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="135"/>
       <c r="L32" s="48"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -3109,17 +3113,17 @@
       <c r="Y32" s="39"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="248"/>
-      <c r="B33" s="249"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="249"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="197"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="135"/>
       <c r="L33" s="48"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
@@ -3136,19 +3140,19 @@
       <c r="Y33" s="39"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
+      <c r="K34" s="229"/>
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
       <c r="N34" s="13"/>
@@ -3165,17 +3169,17 @@
       <c r="Y34" s="39"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="231"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="232"/>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="13"/>
@@ -3192,21 +3196,21 @@
       <c r="Y35" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="165"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
       <c r="N36" s="48"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -3224,17 +3228,17 @@
       <c r="A37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="314" t="s">
+      <c r="C37" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="315"/>
-      <c r="E37" s="167" t="s">
+      <c r="D37" s="170"/>
+      <c r="E37" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="168"/>
+      <c r="F37" s="126"/>
       <c r="G37" s="35" t="s">
         <v>36</v>
       </c>
@@ -3268,10 +3272,10 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="155"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
@@ -3297,10 +3301,10 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="155"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="172"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="58"/>
@@ -3326,10 +3330,10 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="155"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="172"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="58"/>
@@ -3353,10 +3357,10 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="172"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="58"/>
@@ -3378,19 +3382,19 @@
       <c r="Y41" s="39"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="156" t="s">
+      <c r="A42" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="158"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="175"/>
       <c r="L42" s="48"/>
       <c r="M42" s="56"/>
       <c r="N42" s="13"/>
@@ -3407,21 +3411,21 @@
       <c r="Y42" s="39"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="309" t="s">
+      <c r="A43" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="310" t="s">
+      <c r="B43" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="310"/>
-      <c r="D43" s="152" t="s">
+      <c r="C43" s="176"/>
+      <c r="D43" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="153"/>
-      <c r="F43" s="312" t="s">
+      <c r="E43" s="178"/>
+      <c r="F43" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="313"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="88" t="s">
         <v>41</v>
       </c>
@@ -3434,10 +3438,10 @@
       <c r="K43" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="167" t="s">
+      <c r="L43" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="M43" s="168"/>
+      <c r="M43" s="126"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -3451,12 +3455,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="87"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="153"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="89"/>
       <c r="I44" s="90"/>
       <c r="J44" s="90"/>
@@ -3478,12 +3482,12 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="87"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="153"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="89"/>
       <c r="I45" s="90"/>
       <c r="J45" s="90"/>
@@ -3502,19 +3506,19 @@
       <c r="W45" s="39"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="145"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="184"/>
       <c r="L46" s="48"/>
       <c r="M46" s="48"/>
       <c r="N46" s="13"/>
@@ -3531,19 +3535,19 @@
       <c r="Y46" s="39"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="148"/>
+      <c r="B47" s="186"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="186"/>
+      <c r="I47" s="186"/>
+      <c r="J47" s="186"/>
+      <c r="K47" s="187"/>
       <c r="L47" s="48"/>
       <c r="M47" s="48"/>
       <c r="N47" s="13"/>
@@ -3560,21 +3564,21 @@
       <c r="Y47" s="39"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="309" t="s">
+      <c r="A48" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="311" t="s">
+      <c r="B48" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="311"/>
-      <c r="D48" s="312" t="s">
+      <c r="C48" s="188"/>
+      <c r="D48" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="313"/>
-      <c r="F48" s="149" t="s">
+      <c r="E48" s="180"/>
+      <c r="F48" s="189" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="150"/>
+      <c r="G48" s="190"/>
       <c r="H48" s="60" t="s">
         <v>45</v>
       </c>
@@ -3583,10 +3587,10 @@
       </c>
       <c r="J48" s="73"/>
       <c r="K48" s="61"/>
-      <c r="L48" s="167" t="s">
+      <c r="L48" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="168"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -3602,12 +3606,12 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
       <c r="H49" s="61"/>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -3629,12 +3633,12 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -3658,12 +3662,12 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -3685,16 +3689,16 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
       <c r="L52" s="48"/>
       <c r="M52" s="48"/>
       <c r="N52" s="13"/>
@@ -3712,16 +3716,16 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
       <c r="L53" s="48" t="s">
         <v>47</v>
       </c>
@@ -3741,16 +3745,16 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
       <c r="H54" s="61"/>
       <c r="I54" s="61"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="191"/>
       <c r="L54" s="48"/>
       <c r="M54" s="48"/>
       <c r="N54" s="13"/>
@@ -3768,16 +3772,16 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="191"/>
+      <c r="G55" s="191"/>
       <c r="H55" s="61"/>
       <c r="I55" s="61"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
+      <c r="J55" s="191"/>
+      <c r="K55" s="191"/>
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="13"/>
@@ -3795,16 +3799,16 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
+      <c r="B56" s="191"/>
+      <c r="C56" s="191"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="191"/>
+      <c r="F56" s="191"/>
+      <c r="G56" s="191"/>
       <c r="H56" s="61"/>
       <c r="I56" s="61"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="191"/>
       <c r="L56" s="48"/>
       <c r="M56" s="48"/>
       <c r="N56" s="13"/>
@@ -3821,19 +3825,19 @@
       <c r="Y56" s="39"/>
     </row>
     <row r="57" spans="1:25" ht="21" customHeight="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="99"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="192"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="192"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="193"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="194"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -3850,21 +3854,21 @@
       <c r="Y57" s="39"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="107" t="s">
+      <c r="A58" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="99"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="194"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="133" t="s">
+      <c r="H58" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="123"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
+      <c r="K58" s="197"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
@@ -3881,12 +3885,12 @@
       <c r="Y58" s="39"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="108"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="97"/>
+      <c r="A59" s="234"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="236"/>
+      <c r="E59" s="237"/>
+      <c r="F59" s="238"/>
       <c r="K59" s="74"/>
       <c r="L59" s="75"/>
       <c r="M59" s="75"/>
@@ -3919,12 +3923,12 @@
       <c r="I60" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J60" s="135" t="s">
+      <c r="J60" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="123"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="136"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="199"/>
+      <c r="M60" s="199"/>
       <c r="N60" s="13"/>
       <c r="O60" s="48"/>
       <c r="P60" s="13"/>
@@ -3939,24 +3943,24 @@
       <c r="Y60" s="39"/>
     </row>
     <row r="61" spans="1:25" ht="24" customHeight="1">
-      <c r="A61" s="137" t="str">
+      <c r="A61" s="200" t="str">
         <f>A36</f>
         <v>SALES ORDER - CREDIT SALES</v>
       </c>
-      <c r="B61" s="138"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="204"/>
       <c r="G61" s="25"/>
       <c r="H61" s="68">
         <v>1000</v>
       </c>
       <c r="I61" s="77"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="197"/>
+      <c r="L61" s="206"/>
+      <c r="M61" s="206"/>
       <c r="N61" s="13"/>
       <c r="O61" s="48"/>
       <c r="P61" s="13"/>
@@ -3971,24 +3975,24 @@
       <c r="Y61" s="39"/>
     </row>
     <row r="62" spans="1:25" ht="21" customHeight="1">
-      <c r="A62" s="110" t="str">
+      <c r="A62" s="239" t="str">
         <f>A42</f>
         <v>DISCOUNTS ( WHOLE SALE - FUEL)</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="96"/>
+      <c r="B62" s="240"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="242"/>
+      <c r="E62" s="243"/>
+      <c r="F62" s="244"/>
       <c r="G62" s="69"/>
       <c r="H62" s="68">
         <v>500</v>
       </c>
       <c r="I62" s="77"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
+      <c r="J62" s="205"/>
+      <c r="K62" s="197"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="206"/>
       <c r="N62" s="13"/>
       <c r="O62" s="48"/>
       <c r="P62" s="13"/>
@@ -4003,21 +4007,21 @@
       <c r="Y62" s="39"/>
     </row>
     <row r="63" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A63" s="110"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="97"/>
+      <c r="A63" s="239"/>
+      <c r="B63" s="240"/>
+      <c r="C63" s="241"/>
+      <c r="D63" s="237"/>
+      <c r="E63" s="237"/>
+      <c r="F63" s="238"/>
       <c r="G63" s="69"/>
       <c r="H63" s="68">
         <v>200</v>
       </c>
       <c r="I63" s="77"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="123"/>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93"/>
+      <c r="J63" s="205"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="206"/>
+      <c r="M63" s="206"/>
       <c r="N63" s="13"/>
       <c r="O63" s="48"/>
       <c r="P63" s="13"/>
@@ -4032,24 +4036,24 @@
       <c r="Y63" s="39"/>
     </row>
     <row r="64" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A64" s="110" t="str">
+      <c r="A64" s="239" t="str">
         <f>A46</f>
         <v>OTHERS</v>
       </c>
-      <c r="B64" s="111"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="96"/>
+      <c r="B64" s="240"/>
+      <c r="C64" s="241"/>
+      <c r="D64" s="248"/>
+      <c r="E64" s="243"/>
+      <c r="F64" s="244"/>
       <c r="G64" s="69"/>
       <c r="H64" s="68">
         <v>100</v>
       </c>
       <c r="I64" s="77"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="123"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
+      <c r="J64" s="205"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="206"/>
       <c r="N64" s="13"/>
       <c r="O64" s="48"/>
       <c r="P64" s="13"/>
@@ -4064,21 +4068,21 @@
       <c r="Y64" s="39"/>
     </row>
     <row r="65" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A65" s="115"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="97"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="246"/>
+      <c r="C65" s="247"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="238"/>
       <c r="G65" s="69"/>
       <c r="H65" s="68">
         <v>50</v>
       </c>
       <c r="I65" s="77"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="123"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
+      <c r="J65" s="205"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="206"/>
+      <c r="M65" s="206"/>
       <c r="N65" s="13"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
@@ -4093,23 +4097,23 @@
       <c r="Y65" s="39"/>
     </row>
     <row r="66" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A66" s="107" t="s">
+      <c r="A66" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="119"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="96"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="194"/>
+      <c r="D66" s="249"/>
+      <c r="E66" s="243"/>
+      <c r="F66" s="244"/>
       <c r="G66" s="69"/>
       <c r="H66" s="68">
         <v>20</v>
       </c>
       <c r="I66" s="77"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
+      <c r="J66" s="205"/>
+      <c r="K66" s="197"/>
+      <c r="L66" s="206"/>
+      <c r="M66" s="206"/>
       <c r="N66" s="13"/>
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
@@ -4124,21 +4128,21 @@
       <c r="Y66" s="39"/>
     </row>
     <row r="67" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A67" s="95"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="97"/>
+      <c r="A67" s="236"/>
+      <c r="B67" s="237"/>
+      <c r="C67" s="238"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="237"/>
+      <c r="F67" s="238"/>
       <c r="G67" s="69"/>
       <c r="H67" s="68">
         <v>10</v>
       </c>
       <c r="I67" s="77"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="123"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
+      <c r="J67" s="205"/>
+      <c r="K67" s="197"/>
+      <c r="L67" s="206"/>
+      <c r="M67" s="206"/>
       <c r="N67" s="13"/>
       <c r="O67" s="48"/>
       <c r="P67" s="13"/>
@@ -4153,23 +4157,23 @@
       <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="1:25" ht="21" customHeight="1">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="250" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="119"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="96"/>
+      <c r="B68" s="243"/>
+      <c r="C68" s="244"/>
+      <c r="D68" s="249"/>
+      <c r="E68" s="243"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="69"/>
       <c r="H68" s="68">
         <v>5</v>
       </c>
       <c r="I68" s="77"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="123"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
+      <c r="J68" s="205"/>
+      <c r="K68" s="197"/>
+      <c r="L68" s="206"/>
+      <c r="M68" s="206"/>
       <c r="N68" s="13"/>
       <c r="O68" s="48"/>
       <c r="P68" s="13"/>
@@ -4184,23 +4188,23 @@
       <c r="Y68" s="39"/>
     </row>
     <row r="69" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A69" s="95"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="97"/>
+      <c r="A69" s="236"/>
+      <c r="B69" s="237"/>
+      <c r="C69" s="238"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="237"/>
+      <c r="F69" s="238"/>
       <c r="G69" s="69"/>
       <c r="H69" s="68">
         <v>1</v>
       </c>
       <c r="I69" s="77"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="123"/>
-      <c r="L69" s="93" t="s">
+      <c r="J69" s="205"/>
+      <c r="K69" s="197"/>
+      <c r="L69" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="M69" s="93"/>
+      <c r="M69" s="206"/>
       <c r="N69" s="13"/>
       <c r="O69" s="48"/>
       <c r="P69" s="13"/>
@@ -4215,25 +4219,25 @@
       <c r="Y69" s="39"/>
     </row>
     <row r="70" spans="1:25" ht="21" customHeight="1">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="96"/>
+      <c r="B70" s="243"/>
+      <c r="C70" s="244"/>
+      <c r="D70" s="251"/>
+      <c r="E70" s="243"/>
+      <c r="F70" s="244"/>
       <c r="G70" s="69"/>
       <c r="H70" s="68">
         <v>0.25</v>
       </c>
       <c r="I70" s="78"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="123"/>
-      <c r="L70" s="129" t="s">
+      <c r="J70" s="205"/>
+      <c r="K70" s="197"/>
+      <c r="L70" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="M70" s="129"/>
+      <c r="M70" s="207"/>
       <c r="N70" s="13"/>
       <c r="O70" s="48"/>
       <c r="P70" s="51"/>
@@ -4248,19 +4252,19 @@
       <c r="Y70" s="39"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="108"/>
-      <c r="B71" s="120"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="99"/>
+      <c r="A71" s="234"/>
+      <c r="B71" s="250"/>
+      <c r="C71" s="194"/>
+      <c r="D71" s="234"/>
+      <c r="E71" s="251"/>
+      <c r="F71" s="194"/>
       <c r="G71" s="69"/>
-      <c r="H71" s="130" t="s">
+      <c r="H71" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="123"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="123"/>
+      <c r="I71" s="197"/>
+      <c r="J71" s="205"/>
+      <c r="K71" s="197"/>
       <c r="L71" s="79"/>
       <c r="M71" s="52"/>
       <c r="N71" s="13"/>
@@ -4277,22 +4281,22 @@
       <c r="Y71" s="39"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="95"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="95"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="97"/>
+      <c r="A72" s="236"/>
+      <c r="B72" s="237"/>
+      <c r="C72" s="238"/>
+      <c r="D72" s="236"/>
+      <c r="E72" s="237"/>
+      <c r="F72" s="238"/>
       <c r="G72" s="69"/>
-      <c r="H72" s="122" t="s">
+      <c r="H72" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="123"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="125"/>
-      <c r="M72" s="125"/>
-      <c r="N72" s="125"/>
+      <c r="I72" s="197"/>
+      <c r="J72" s="210"/>
+      <c r="K72" s="197"/>
+      <c r="L72" s="211"/>
+      <c r="M72" s="211"/>
+      <c r="N72" s="211"/>
       <c r="O72" s="48"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -4363,12 +4367,12 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
+      <c r="B75" s="212"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="213"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="44"/>
@@ -4390,12 +4394,12 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
       <c r="H76" s="71"/>
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
@@ -4417,12 +4421,12 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="13"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
+      <c r="B77" s="132"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="206"/>
+      <c r="G77" s="206"/>
       <c r="H77" s="71"/>
       <c r="I77" s="71"/>
       <c r="J77" s="71"/>
@@ -4444,12 +4448,12 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="39"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="206"/>
+      <c r="F78" s="206"/>
+      <c r="G78" s="206"/>
       <c r="H78" s="71"/>
       <c r="I78" s="71"/>
       <c r="J78" s="71"/>
@@ -4471,12 +4475,12 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="39"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
+      <c r="B79" s="132"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="206"/>
+      <c r="G79" s="206"/>
       <c r="H79" s="71"/>
       <c r="I79" s="71"/>
       <c r="J79" s="71"/>
@@ -10310,6 +10314,181 @@
     <row r="873" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="199">
+    <mergeCell ref="A64:C65"/>
+    <mergeCell ref="D64:F65"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:F67"/>
+    <mergeCell ref="A68:C69"/>
+    <mergeCell ref="D68:F69"/>
+    <mergeCell ref="A70:C72"/>
+    <mergeCell ref="D70:F72"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A34:K35"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="D58:F59"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D62:F63"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="A1:K1"/>
@@ -10334,181 +10513,6 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A34:K35"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="D58:F59"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D62:F63"/>
-    <mergeCell ref="A64:C65"/>
-    <mergeCell ref="D64:F65"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="D66:F67"/>
-    <mergeCell ref="A68:C69"/>
-    <mergeCell ref="D68:F69"/>
-    <mergeCell ref="A70:C72"/>
-    <mergeCell ref="D70:F72"/>
   </mergeCells>
   <pageMargins left="0.30277777777777798" right="0.30277777777777798" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -10519,7 +10523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075C2E48-318A-4A81-8366-DE79B25A9DE0}">
   <dimension ref="A1:Y923"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A67" sqref="A67:C68"/>
     </sheetView>
   </sheetViews>
@@ -10546,19 +10550,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -10711,17 +10715,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="92"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="41"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="130"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -10736,17 +10740,17 @@
       <c r="Y6" s="39"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="189" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="94" t="s">
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="312" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -10755,14 +10759,14 @@
       <c r="I7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="256" t="s">
+      <c r="K7" s="244"/>
+      <c r="L7" s="315" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="257"/>
+      <c r="M7" s="316"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -10777,27 +10781,27 @@
       <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="189" t="s">
+      <c r="A8" s="236"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="190" t="s">
+      <c r="D8" s="197"/>
+      <c r="E8" s="310" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="191"/>
-      <c r="G8" s="95"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="236"/>
       <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="316"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -10818,14 +10822,14 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="184">
+      <c r="C9" s="309">
         <v>45</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="184">
+      <c r="D9" s="197"/>
+      <c r="E9" s="309">
         <v>78</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -10836,15 +10840,15 @@
       <c r="I9" s="1">
         <v>78</v>
       </c>
-      <c r="J9" s="180">
+      <c r="J9" s="306">
         <f>I9*H9</f>
         <v>2496</v>
       </c>
-      <c r="K9" s="181"/>
-      <c r="L9" s="171" t="s">
+      <c r="K9" s="307"/>
+      <c r="L9" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="92"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -10865,21 +10869,21 @@
       <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="123"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="197"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="258" t="s">
+      <c r="I10" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="171" t="s">
+      <c r="J10" s="306"/>
+      <c r="K10" s="307"/>
+      <c r="L10" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="171"/>
+      <c r="M10" s="141"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -10902,19 +10906,19 @@
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="123"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="197"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="171" t="s">
+      <c r="J11" s="306"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="171"/>
+      <c r="M11" s="141"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -10937,17 +10941,17 @@
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="183"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="123"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="197"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="307"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -10968,17 +10972,17 @@
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="123"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="197"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="45"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="307"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -10999,17 +11003,17 @@
       <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="123"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="197"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="307"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -11024,24 +11028,24 @@
       <c r="Y14" s="39"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="296" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="177"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="297"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="298"/>
       <c r="H15" s="23"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="182">
+      <c r="J15" s="304">
         <f>SUM(J9:K14)</f>
         <v>2496</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="171"/>
-      <c r="M15" s="171"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -11058,8 +11062,8 @@
     <row r="16" spans="1:25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -11067,8 +11071,8 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -11089,17 +11093,17 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="123"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="197"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
+      <c r="J17" s="303"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -11120,17 +11124,17 @@
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="123"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="197"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
+      <c r="J18" s="303"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -11145,21 +11149,21 @@
       <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="296" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="298"/>
       <c r="H19" s="27"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -11187,8 +11191,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -11209,17 +11213,17 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="123"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
+      <c r="J21" s="303"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -11240,17 +11244,17 @@
       <c r="B22" s="20">
         <v>2</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="123"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="171"/>
-      <c r="M22" s="171"/>
+      <c r="J22" s="303"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
       <c r="N22" s="13"/>
       <c r="O22" s="48"/>
       <c r="P22" s="13"/>
@@ -11271,17 +11275,17 @@
       <c r="B23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="123"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="197"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="171"/>
+      <c r="J23" s="303"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -11302,17 +11306,17 @@
       <c r="B24" s="20">
         <v>4</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="123"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="197"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
+      <c r="J24" s="303"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -11327,23 +11331,23 @@
       <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="296" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="177"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="297"/>
+      <c r="G25" s="298"/>
       <c r="H25" s="28"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="92"/>
+      <c r="J25" s="299"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -11367,8 +11371,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -11383,20 +11387,20 @@
       <c r="Y26" s="39"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="259" t="s">
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="243"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="301" t="s">
         <v>65</v>
       </c>
       <c r="M27" s="48"/>
@@ -11414,20 +11418,20 @@
       <c r="Y27" s="39"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="259"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="301"/>
       <c r="M28" s="50"/>
       <c r="N28" s="13"/>
       <c r="O28" s="51"/>
@@ -11443,25 +11447,25 @@
       <c r="Y28" s="39"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="260" t="s">
+      <c r="A29" s="284" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="261"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="261"/>
-      <c r="H29" s="262" t="s">
+      <c r="B29" s="285"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="263" t="s">
+      <c r="I29" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="264" t="s">
+      <c r="J29" s="292" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="265"/>
+      <c r="K29" s="293"/>
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
@@ -11478,17 +11482,17 @@
       <c r="Y29" s="39"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="266"/>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="271"/>
+      <c r="A30" s="286"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="289"/>
+      <c r="I30" s="291"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="295"/>
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="55"/>
@@ -11505,17 +11509,17 @@
       <c r="Y30" s="39"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="161"/>
+      <c r="A31" s="279"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="281"/>
       <c r="H31" s="31"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="97"/>
+      <c r="J31" s="282"/>
+      <c r="K31" s="238"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
@@ -11532,17 +11536,17 @@
       <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="161"/>
+      <c r="A32" s="279"/>
+      <c r="B32" s="280"/>
+      <c r="C32" s="280"/>
+      <c r="D32" s="280"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="280"/>
+      <c r="G32" s="281"/>
       <c r="H32" s="32"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="97"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="238"/>
       <c r="L32" s="48"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -11559,17 +11563,17 @@
       <c r="Y32" s="39"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="159"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="161"/>
+      <c r="A33" s="279"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="281"/>
       <c r="H33" s="32"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="123"/>
+      <c r="J33" s="283"/>
+      <c r="K33" s="197"/>
       <c r="L33" s="48"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
@@ -11586,17 +11590,17 @@
       <c r="Y33" s="39"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="159"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="161"/>
+      <c r="A34" s="279"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="280"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="280"/>
+      <c r="F34" s="280"/>
+      <c r="G34" s="281"/>
       <c r="H34" s="32"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="123"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="197"/>
       <c r="L34" s="48"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
@@ -11613,20 +11617,20 @@
       <c r="Y34" s="39"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="273"/>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
-      <c r="H35" s="273"/>
-      <c r="I35" s="273"/>
-      <c r="J35" s="273"/>
-      <c r="K35" s="274"/>
-      <c r="L35" s="275" t="s">
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="267"/>
+      <c r="K35" s="268"/>
+      <c r="L35" s="269" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="50"/>
@@ -11644,20 +11648,20 @@
       <c r="Y35" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="276" t="s">
+      <c r="A36" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="277"/>
-      <c r="C36" s="277"/>
-      <c r="D36" s="277"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="277"/>
-      <c r="G36" s="277"/>
-      <c r="H36" s="277"/>
-      <c r="I36" s="277"/>
-      <c r="J36" s="277"/>
-      <c r="K36" s="278"/>
-      <c r="L36" s="279"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="272"/>
+      <c r="I36" s="272"/>
+      <c r="J36" s="272"/>
+      <c r="K36" s="273"/>
+      <c r="L36" s="270"/>
       <c r="M36" s="50"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -11673,19 +11677,19 @@
       <c r="Y36" s="39"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="97"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="237"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="238"/>
       <c r="L37" s="52"/>
       <c r="M37" s="52"/>
       <c r="N37" s="48"/>
@@ -11702,33 +11706,33 @@
       <c r="Y37" s="39"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="281" t="s">
+      <c r="A38" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="282" t="s">
+      <c r="B38" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="283" t="s">
+      <c r="C38" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="284"/>
-      <c r="E38" s="285" t="s">
+      <c r="D38" s="276"/>
+      <c r="E38" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="286"/>
-      <c r="G38" s="287" t="s">
+      <c r="F38" s="278"/>
+      <c r="G38" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="287" t="s">
+      <c r="H38" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="288" t="s">
+      <c r="I38" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="288" t="s">
+      <c r="J38" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="288" t="s">
+      <c r="K38" s="116" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="53"/>
@@ -11749,10 +11753,10 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="155"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="172"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -11778,10 +11782,10 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="155"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="172"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="58"/>
@@ -11807,10 +11811,10 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="172"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="58"/>
@@ -11834,10 +11838,10 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="155"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="172"/>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="I42" s="58"/>
@@ -11861,10 +11865,10 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="155"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="172"/>
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="58"/>
@@ -11886,15 +11890,15 @@
       <c r="Y43" s="39"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="289"/>
+      <c r="A44" s="117"/>
       <c r="B44" s="37"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="290"/>
-      <c r="F44" s="291"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="259"/>
+      <c r="F44" s="260"/>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
-      <c r="I44" s="292"/>
+      <c r="I44" s="118"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="48"/>
@@ -11913,15 +11917,15 @@
       <c r="Y44" s="39"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="289"/>
+      <c r="A45" s="117"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="291"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="260"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
-      <c r="I45" s="292"/>
+      <c r="I45" s="118"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="48"/>
@@ -11940,15 +11944,15 @@
       <c r="Y45" s="39"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="289"/>
+      <c r="A46" s="117"/>
       <c r="B46" s="37"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="295"/>
-      <c r="I46" s="292"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="118"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
       <c r="L46" s="48"/>
@@ -11967,20 +11971,20 @@
       <c r="Y46" s="39"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="158"/>
-      <c r="L47" s="296"/>
+      <c r="B47" s="174"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="262"/>
       <c r="M47" s="56"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -11996,30 +12000,30 @@
       <c r="Y47" s="39"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="297" t="s">
+      <c r="A48" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="298"/>
-      <c r="D48" s="299" t="s">
+      <c r="C48" s="263"/>
+      <c r="D48" s="264" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
-      <c r="G48" s="300" t="s">
+      <c r="E48" s="264"/>
+      <c r="F48" s="264"/>
+      <c r="G48" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="301" t="s">
+      <c r="H48" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="I48" s="301"/>
-      <c r="J48" s="301" t="s">
+      <c r="I48" s="265"/>
+      <c r="J48" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="301"/>
-      <c r="L48" s="296"/>
+      <c r="K48" s="265"/>
+      <c r="L48" s="262"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -12034,16 +12038,16 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
       <c r="G49" s="61"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
+      <c r="H49" s="189"/>
+      <c r="I49" s="190"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -12059,16 +12063,16 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
       <c r="G50" s="61"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
+      <c r="H50" s="189"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="191"/>
       <c r="L50" s="13" t="s">
         <v>71</v>
       </c>
@@ -12086,16 +12090,16 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="191"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="191"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
@@ -12111,16 +12115,16 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191"/>
       <c r="G52" s="61"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="190"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
@@ -12136,16 +12140,16 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
       <c r="G53" s="61"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="190"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
@@ -12161,16 +12165,16 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="191"/>
       <c r="G54" s="61"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
+      <c r="H54" s="189"/>
+      <c r="I54" s="190"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="191"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
@@ -12186,16 +12190,16 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="191"/>
       <c r="G55" s="61"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
+      <c r="H55" s="189"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="191"/>
+      <c r="K55" s="191"/>
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="13"/>
@@ -12212,19 +12216,19 @@
       <c r="Y55" s="39"/>
     </row>
     <row r="56" spans="1:25" ht="21" customHeight="1">
-      <c r="A56" s="302" t="s">
+      <c r="A56" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="99"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="192"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="194"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -12241,24 +12245,24 @@
       <c r="Y56" s="39"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="109" t="str">
+      <c r="B57" s="130"/>
+      <c r="C57" s="194"/>
+      <c r="D57" s="235" t="str">
         <f>L7</f>
         <v>Sec1</v>
       </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="99"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="194"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="133" t="s">
+      <c r="H57" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="123"/>
+      <c r="I57" s="196"/>
+      <c r="J57" s="196"/>
+      <c r="K57" s="197"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -12275,12 +12279,12 @@
       <c r="Y57" s="39"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="97"/>
+      <c r="A58" s="236"/>
+      <c r="B58" s="237"/>
+      <c r="C58" s="238"/>
+      <c r="D58" s="236"/>
+      <c r="E58" s="237"/>
+      <c r="F58" s="238"/>
       <c r="K58" s="74"/>
       <c r="L58" s="75"/>
       <c r="M58" s="75"/>
@@ -12298,17 +12302,17 @@
       <c r="Y58" s="39"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="303" t="s">
+      <c r="A59" s="257" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="304" t="str">
+      <c r="B59" s="243"/>
+      <c r="C59" s="244"/>
+      <c r="D59" s="256" t="str">
         <f>L27</f>
         <v>sec2</v>
       </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="96"/>
+      <c r="E59" s="243"/>
+      <c r="F59" s="244"/>
       <c r="G59" s="25"/>
       <c r="H59" s="67" t="s">
         <v>51</v>
@@ -12316,12 +12320,12 @@
       <c r="I59" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J59" s="135" t="s">
+      <c r="J59" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="123"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
+      <c r="K59" s="197"/>
+      <c r="L59" s="199"/>
+      <c r="M59" s="199"/>
       <c r="N59" s="13"/>
       <c r="O59" s="48"/>
       <c r="P59" s="13"/>
@@ -12336,12 +12340,12 @@
       <c r="Y59" s="39"/>
     </row>
     <row r="60" spans="1:25" ht="24" customHeight="1">
-      <c r="A60" s="95"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="97"/>
+      <c r="A60" s="236"/>
+      <c r="B60" s="237"/>
+      <c r="C60" s="238"/>
+      <c r="D60" s="236"/>
+      <c r="E60" s="237"/>
+      <c r="F60" s="238"/>
       <c r="G60" s="25"/>
       <c r="H60" s="68">
         <v>1000</v>
@@ -12349,13 +12353,13 @@
       <c r="I60" s="77">
         <v>1</v>
       </c>
-      <c r="J60" s="128">
+      <c r="J60" s="205">
         <f>1000*I60</f>
         <v>1000</v>
       </c>
-      <c r="K60" s="123"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="206"/>
+      <c r="M60" s="206"/>
       <c r="N60" s="13"/>
       <c r="O60" s="48"/>
       <c r="P60" s="13"/>
@@ -12370,14 +12374,14 @@
       <c r="Y60" s="39"/>
     </row>
     <row r="61" spans="1:25" ht="21" customHeight="1">
-      <c r="A61" s="305" t="s">
+      <c r="A61" s="255" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="96"/>
+      <c r="B61" s="243"/>
+      <c r="C61" s="244"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="243"/>
+      <c r="F61" s="244"/>
       <c r="G61" s="69"/>
       <c r="H61" s="68">
         <v>500</v>
@@ -12385,13 +12389,13 @@
       <c r="I61" s="77">
         <v>1</v>
       </c>
-      <c r="J61" s="128">
+      <c r="J61" s="205">
         <f>500*I61</f>
         <v>500</v>
       </c>
-      <c r="K61" s="123"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
+      <c r="K61" s="197"/>
+      <c r="L61" s="206"/>
+      <c r="M61" s="206"/>
       <c r="N61" s="13"/>
       <c r="O61" s="48"/>
       <c r="P61" s="13"/>
@@ -12406,12 +12410,12 @@
       <c r="Y61" s="39"/>
     </row>
     <row r="62" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A62" s="95"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="97"/>
+      <c r="A62" s="236"/>
+      <c r="B62" s="237"/>
+      <c r="C62" s="238"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="237"/>
+      <c r="F62" s="238"/>
       <c r="G62" s="69"/>
       <c r="H62" s="68">
         <v>200</v>
@@ -12419,13 +12423,13 @@
       <c r="I62" s="77">
         <v>1</v>
       </c>
-      <c r="J62" s="128">
+      <c r="J62" s="205">
         <f>200*I62</f>
         <v>200</v>
       </c>
-      <c r="K62" s="123"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
+      <c r="K62" s="197"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="206"/>
       <c r="N62" s="13"/>
       <c r="O62" s="48"/>
       <c r="P62" s="13"/>
@@ -12440,17 +12444,17 @@
       <c r="Y62" s="39"/>
     </row>
     <row r="63" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A63" s="305" t="s">
+      <c r="A63" s="255" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="114"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="304" t="str">
+      <c r="B63" s="243"/>
+      <c r="C63" s="244"/>
+      <c r="D63" s="256" t="str">
         <f>L35</f>
         <v>sec3</v>
       </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="96"/>
+      <c r="E63" s="243"/>
+      <c r="F63" s="244"/>
       <c r="G63" s="69"/>
       <c r="H63" s="68">
         <v>100</v>
@@ -12458,13 +12462,13 @@
       <c r="I63" s="77">
         <v>1</v>
       </c>
-      <c r="J63" s="128">
+      <c r="J63" s="205">
         <f>100*I63</f>
         <v>100</v>
       </c>
-      <c r="K63" s="123"/>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="206"/>
+      <c r="M63" s="206"/>
       <c r="N63" s="13"/>
       <c r="O63" s="48"/>
       <c r="P63" s="13"/>
@@ -12479,12 +12483,12 @@
       <c r="Y63" s="39"/>
     </row>
     <row r="64" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A64" s="95"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="97"/>
+      <c r="A64" s="236"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="238"/>
+      <c r="D64" s="236"/>
+      <c r="E64" s="237"/>
+      <c r="F64" s="238"/>
       <c r="G64" s="69"/>
       <c r="H64" s="68">
         <v>50</v>
@@ -12492,13 +12496,13 @@
       <c r="I64" s="77">
         <v>1</v>
       </c>
-      <c r="J64" s="128">
+      <c r="J64" s="205">
         <f>50*I64</f>
         <v>50</v>
       </c>
-      <c r="K64" s="123"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="206"/>
+      <c r="M64" s="206"/>
       <c r="N64" s="13"/>
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
@@ -12513,14 +12517,14 @@
       <c r="Y64" s="39"/>
     </row>
     <row r="65" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A65" s="305" t="s">
+      <c r="A65" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="96"/>
+      <c r="B65" s="243"/>
+      <c r="C65" s="244"/>
+      <c r="D65" s="249"/>
+      <c r="E65" s="243"/>
+      <c r="F65" s="244"/>
       <c r="G65" s="69"/>
       <c r="H65" s="68">
         <v>20</v>
@@ -12528,13 +12532,13 @@
       <c r="I65" s="77">
         <v>1</v>
       </c>
-      <c r="J65" s="128">
+      <c r="J65" s="205">
         <f>20*I65</f>
         <v>20</v>
       </c>
-      <c r="K65" s="123"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="206"/>
+      <c r="M65" s="206"/>
       <c r="N65" s="13"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
@@ -12549,12 +12553,12 @@
       <c r="Y65" s="39"/>
     </row>
     <row r="66" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A66" s="95"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="97"/>
+      <c r="A66" s="236"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="238"/>
+      <c r="D66" s="236"/>
+      <c r="E66" s="237"/>
+      <c r="F66" s="238"/>
       <c r="G66" s="69"/>
       <c r="H66" s="68">
         <v>10</v>
@@ -12562,13 +12566,13 @@
       <c r="I66" s="77">
         <v>1</v>
       </c>
-      <c r="J66" s="128">
+      <c r="J66" s="205">
         <f>10*I66</f>
         <v>10</v>
       </c>
-      <c r="K66" s="123"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
+      <c r="K66" s="197"/>
+      <c r="L66" s="206"/>
+      <c r="M66" s="206"/>
       <c r="N66" s="13"/>
       <c r="O66" s="48"/>
       <c r="P66" s="13"/>
@@ -12583,14 +12587,14 @@
       <c r="Y66" s="39"/>
     </row>
     <row r="67" spans="1:25" ht="21" customHeight="1">
-      <c r="A67" s="305" t="s">
+      <c r="A67" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="96"/>
+      <c r="B67" s="243"/>
+      <c r="C67" s="244"/>
+      <c r="D67" s="249"/>
+      <c r="E67" s="243"/>
+      <c r="F67" s="244"/>
       <c r="G67" s="69"/>
       <c r="H67" s="68">
         <v>5</v>
@@ -12598,13 +12602,13 @@
       <c r="I67" s="77">
         <v>1</v>
       </c>
-      <c r="J67" s="128">
+      <c r="J67" s="205">
         <f>5*I67</f>
         <v>5</v>
       </c>
-      <c r="K67" s="123"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
+      <c r="K67" s="197"/>
+      <c r="L67" s="206"/>
+      <c r="M67" s="206"/>
       <c r="N67" s="13"/>
       <c r="O67" s="48"/>
       <c r="P67" s="13"/>
@@ -12619,12 +12623,12 @@
       <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A68" s="95"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="97"/>
+      <c r="A68" s="236"/>
+      <c r="B68" s="237"/>
+      <c r="C68" s="238"/>
+      <c r="D68" s="236"/>
+      <c r="E68" s="237"/>
+      <c r="F68" s="238"/>
       <c r="G68" s="69"/>
       <c r="H68" s="68">
         <v>1</v>
@@ -12632,15 +12636,15 @@
       <c r="I68" s="77">
         <v>1</v>
       </c>
-      <c r="J68" s="128">
+      <c r="J68" s="205">
         <f>1*I68</f>
         <v>1</v>
       </c>
-      <c r="K68" s="123"/>
-      <c r="L68" s="93" t="s">
+      <c r="K68" s="197"/>
+      <c r="L68" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="M68" s="93"/>
+      <c r="M68" s="206"/>
       <c r="N68" s="13"/>
       <c r="O68" s="48"/>
       <c r="P68" s="13"/>
@@ -12655,14 +12659,14 @@
       <c r="Y68" s="39"/>
     </row>
     <row r="69" spans="1:25" ht="21" customHeight="1">
-      <c r="A69" s="306" t="s">
+      <c r="A69" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="121"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="96"/>
+      <c r="B69" s="243"/>
+      <c r="C69" s="244"/>
+      <c r="D69" s="251"/>
+      <c r="E69" s="243"/>
+      <c r="F69" s="244"/>
       <c r="G69" s="69"/>
       <c r="H69" s="68">
         <v>0.25</v>
@@ -12670,15 +12674,15 @@
       <c r="I69" s="78">
         <v>1</v>
       </c>
-      <c r="J69" s="128">
+      <c r="J69" s="205">
         <f>0.25*I69</f>
         <v>0.25</v>
       </c>
-      <c r="K69" s="123"/>
-      <c r="L69" s="129" t="s">
+      <c r="K69" s="197"/>
+      <c r="L69" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="129"/>
+      <c r="M69" s="207"/>
       <c r="N69" s="13"/>
       <c r="O69" s="48"/>
       <c r="P69" s="51"/>
@@ -12693,22 +12697,22 @@
       <c r="Y69" s="39"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="108"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="99"/>
+      <c r="A70" s="234"/>
+      <c r="B70" s="250"/>
+      <c r="C70" s="194"/>
+      <c r="D70" s="234"/>
+      <c r="E70" s="251"/>
+      <c r="F70" s="194"/>
       <c r="G70" s="69"/>
-      <c r="H70" s="307" t="s">
+      <c r="H70" s="253" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="123"/>
-      <c r="J70" s="128">
+      <c r="I70" s="197"/>
+      <c r="J70" s="205">
         <f>SUM(J60:K69)</f>
         <v>1886.25</v>
       </c>
-      <c r="K70" s="123"/>
+      <c r="K70" s="197"/>
       <c r="L70" s="79"/>
       <c r="M70" s="52"/>
       <c r="N70" s="13"/>
@@ -12725,22 +12729,22 @@
       <c r="Y70" s="39"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="95"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="97"/>
+      <c r="A71" s="236"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="236"/>
+      <c r="E71" s="237"/>
+      <c r="F71" s="238"/>
       <c r="G71" s="69"/>
-      <c r="H71" s="122" t="s">
+      <c r="H71" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="123"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="123"/>
-      <c r="L71" s="308"/>
-      <c r="M71" s="308"/>
-      <c r="N71" s="308"/>
+      <c r="I71" s="197"/>
+      <c r="J71" s="210"/>
+      <c r="K71" s="197"/>
+      <c r="L71" s="254"/>
+      <c r="M71" s="254"/>
+      <c r="N71" s="254"/>
       <c r="O71" s="48"/>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
@@ -12811,12 +12815,12 @@
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="213"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
       <c r="J74" s="44"/>
@@ -12838,12 +12842,12 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
+      <c r="B75" s="132"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="206"/>
+      <c r="F75" s="206"/>
+      <c r="G75" s="206"/>
       <c r="H75" s="71"/>
       <c r="I75" s="71"/>
       <c r="J75" s="71"/>
@@ -12865,12 +12869,12 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="93"/>
-      <c r="G76" s="93"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="206"/>
+      <c r="F76" s="206"/>
+      <c r="G76" s="206"/>
       <c r="H76" s="71"/>
       <c r="I76" s="71"/>
       <c r="J76" s="71"/>
@@ -12892,12 +12896,12 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="39"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
+      <c r="B77" s="132"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="206"/>
+      <c r="G77" s="206"/>
       <c r="H77" s="71"/>
       <c r="I77" s="71"/>
       <c r="J77" s="71"/>
@@ -12919,12 +12923,12 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="39"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="206"/>
+      <c r="F78" s="206"/>
+      <c r="G78" s="206"/>
       <c r="H78" s="71"/>
       <c r="I78" s="71"/>
       <c r="J78" s="71"/>
@@ -18811,64 +18815,130 @@
     <row r="923" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="A69:C71"/>
-    <mergeCell ref="D69:F71"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="A67:C68"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="D65:F66"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="A63:C64"/>
-    <mergeCell ref="D63:F64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A57:C58"/>
-    <mergeCell ref="D57:F58"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A47:K47"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:F53"/>
     <mergeCell ref="H53:I53"/>
@@ -18885,130 +18955,64 @@
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A57:C58"/>
+    <mergeCell ref="D57:F58"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A63:C64"/>
+    <mergeCell ref="D63:F64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A67:C68"/>
+    <mergeCell ref="D67:F68"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="D65:F66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A69:C71"/>
+    <mergeCell ref="D69:F71"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Cashiers Report Format_1.xlsx
+++ b/Documents/Cashiers Report Format_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baluy\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5192CB-C997-4E00-8F78-B6D2ED42B7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F64AB-0047-4D58-97F2-C34E70464C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1086,9 +1086,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1165,56 +1162,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1251,12 +1198,306 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,369 +1505,195 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1637,191 +1704,148 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2100,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XES873"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2126,19 +2150,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -2281,17 +2305,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="130"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="41"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="130"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2306,31 +2330,31 @@
       <c r="Y6" s="39"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="133" t="s">
+      <c r="B7" s="277"/>
+      <c r="C7" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="214" t="s">
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="220" t="s">
+      <c r="J7" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -2345,27 +2369,27 @@
       <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="215"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="133" t="s">
+      <c r="A8" s="283"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136" t="s">
+      <c r="D8" s="280"/>
+      <c r="E8" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="137"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="93" t="s">
+      <c r="F8" s="286"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="287" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="317" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="152"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="210"/>
+      <c r="M8" s="210"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -2380,25 +2404,25 @@
       <c r="Y8" s="39"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="291">
         <v>1</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="141" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="297"/>
+      <c r="L9" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="118"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -2413,25 +2437,25 @@
       <c r="Y9" s="39"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="291">
         <v>2</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="141" t="s">
+      <c r="C10" s="298"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="297"/>
+      <c r="L10" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="141"/>
+      <c r="M10" s="200"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2448,25 +2472,25 @@
       <c r="Y10" s="39"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="96">
+      <c r="B11" s="291">
         <v>3</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141" t="s">
+      <c r="C11" s="298"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="293"/>
+      <c r="H11" s="293"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="296"/>
+      <c r="K11" s="297"/>
+      <c r="L11" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="141"/>
+      <c r="M11" s="200"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -2483,25 +2507,25 @@
       <c r="Y11" s="39"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="291">
         <v>4</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="100">
+      <c r="C12" s="298"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="293"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="299">
         <v>3</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -2516,25 +2540,25 @@
       <c r="Y12" s="39"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="291">
         <v>5</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="100">
+      <c r="C13" s="300"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="299">
         <v>3</v>
       </c>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="297"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -2549,23 +2573,23 @@
       <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="291">
         <v>6</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="293"/>
+      <c r="H14" s="293"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="296"/>
+      <c r="K14" s="297"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2580,24 +2604,26 @@
       <c r="Y14" s="39"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="318" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="150">
+      <c r="B15" s="319"/>
+      <c r="C15" s="319"/>
+      <c r="D15" s="319"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="305"/>
+      <c r="I15" s="315">
+        <v>6</v>
+      </c>
+      <c r="J15" s="306">
         <f>SUM(J9:K14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="144"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -2612,19 +2638,19 @@
       <c r="Y15" s="39"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
+      <c r="A16" s="307"/>
+      <c r="B16" s="308"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="310"/>
+      <c r="G16" s="310"/>
+      <c r="H16" s="310"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="310"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -2639,23 +2665,23 @@
       <c r="Y16" s="39"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="291">
         <v>1</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="280"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="280"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2670,23 +2696,23 @@
       <c r="Y17" s="39"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="291">
         <v>2</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="301"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="301"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2701,21 +2727,21 @@
       <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="313"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -2732,19 +2758,19 @@
       <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
+      <c r="A20" s="307"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="310"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="310"/>
+      <c r="F20" s="310"/>
+      <c r="G20" s="310"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
+      <c r="K20" s="311"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2759,23 +2785,23 @@
       <c r="Y20" s="39"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="96">
+      <c r="B21" s="291">
         <v>1</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2790,23 +2816,23 @@
       <c r="Y21" s="39"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="96">
+      <c r="B22" s="291">
         <v>2</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="280"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="280"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
       <c r="N22" s="13"/>
       <c r="O22" s="48"/>
       <c r="P22" s="13"/>
@@ -2821,23 +2847,23 @@
       <c r="Y22" s="39"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="96">
+      <c r="B23" s="291">
         <v>3</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+      <c r="J23" s="301"/>
+      <c r="K23" s="280"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2852,23 +2878,23 @@
       <c r="Y23" s="39"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="96">
+      <c r="B24" s="291">
         <v>4</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+      <c r="J24" s="301"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -2883,23 +2909,23 @@
       <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="302" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="130"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
+      <c r="G25" s="304"/>
+      <c r="H25" s="314"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="313"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2923,8 +2949,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2939,21 +2965,21 @@
       <c r="Y26" s="39"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
@@ -2968,19 +2994,19 @@
       <c r="Y27" s="39"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="144"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="130"/>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="13"/>
@@ -2997,25 +3023,25 @@
       <c r="Y28" s="39"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="222" t="s">
+      <c r="A29" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="216" t="s">
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="218" t="s">
+      <c r="I29" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="226" t="s">
+      <c r="J29" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="157"/>
+      <c r="K29" s="129"/>
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
@@ -3032,17 +3058,17 @@
       <c r="Y29" s="39"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="224"/>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="144"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="130"/>
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="55"/>
@@ -3059,17 +3085,17 @@
       <c r="Y30" s="39"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="160"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="144"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="205"/>
+      <c r="K31" s="130"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
@@ -3086,17 +3112,17 @@
       <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="160"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="135"/>
+      <c r="A32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="192"/>
       <c r="L32" s="48"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -3113,17 +3139,17 @@
       <c r="Y32" s="39"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="160"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="135"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="192"/>
       <c r="L33" s="48"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
@@ -3140,19 +3166,19 @@
       <c r="Y33" s="39"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="227" t="s">
+      <c r="A34" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="228"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="228"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="228"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="228"/>
-      <c r="K34" s="229"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="139"/>
       <c r="L34" s="50"/>
       <c r="M34" s="50"/>
       <c r="N34" s="13"/>
@@ -3169,17 +3195,17 @@
       <c r="Y34" s="39"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="230"/>
-      <c r="B35" s="231"/>
-      <c r="C35" s="231"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="232"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142"/>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="13"/>
@@ -3196,21 +3222,21 @@
       <c r="Y35" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="165" t="s">
+      <c r="A36" s="323" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="166"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
       <c r="N36" s="48"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -3228,17 +3254,17 @@
       <c r="A37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="169" t="s">
+      <c r="C37" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="125" t="s">
+      <c r="D37" s="197"/>
+      <c r="E37" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="126"/>
+      <c r="F37" s="199"/>
       <c r="G37" s="35" t="s">
         <v>36</v>
       </c>
@@ -3272,10 +3298,10 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="172"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="183"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
@@ -3301,10 +3327,10 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="172"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="183"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="58"/>
@@ -3330,10 +3356,10 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="172"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="183"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="58"/>
@@ -3357,10 +3383,10 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="172"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="183"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="58"/>
@@ -3382,19 +3408,19 @@
       <c r="Y41" s="39"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="173" t="s">
+      <c r="A42" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="175"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="186"/>
       <c r="L42" s="48"/>
       <c r="M42" s="56"/>
       <c r="N42" s="13"/>
@@ -3411,37 +3437,37 @@
       <c r="Y42" s="39"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B43" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="176"/>
-      <c r="D43" s="177" t="s">
+      <c r="C43" s="187"/>
+      <c r="D43" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="178"/>
-      <c r="F43" s="179" t="s">
+      <c r="E43" s="170"/>
+      <c r="F43" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="180"/>
-      <c r="H43" s="88" t="s">
+      <c r="G43" s="179"/>
+      <c r="H43" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="88" t="s">
+      <c r="I43" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="88" t="s">
+      <c r="J43" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="88" t="s">
+      <c r="K43" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="125" t="s">
+      <c r="L43" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="M43" s="126"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -3454,17 +3480,17 @@
       <c r="W43" s="39"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
       <c r="L44" s="13" t="s">
         <v>42</v>
       </c>
@@ -3481,17 +3507,17 @@
       <c r="W44" s="39"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -3506,19 +3532,19 @@
       <c r="W45" s="39"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="182" t="s">
+      <c r="A46" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="184"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="173"/>
       <c r="L46" s="48"/>
       <c r="M46" s="48"/>
       <c r="N46" s="13"/>
@@ -3535,19 +3561,19 @@
       <c r="Y46" s="39"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="185" t="s">
+      <c r="A47" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="186"/>
-      <c r="C47" s="186"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="186"/>
-      <c r="K47" s="187"/>
+      <c r="B47" s="175"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="176"/>
       <c r="L47" s="48"/>
       <c r="M47" s="48"/>
       <c r="N47" s="13"/>
@@ -3564,33 +3590,33 @@
       <c r="Y47" s="39"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="188"/>
-      <c r="D48" s="179" t="s">
+      <c r="C48" s="177"/>
+      <c r="D48" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="180"/>
-      <c r="F48" s="189" t="s">
+      <c r="E48" s="179"/>
+      <c r="F48" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="190"/>
+      <c r="G48" s="181"/>
       <c r="H48" s="60" t="s">
         <v>45</v>
       </c>
       <c r="I48" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="73"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="61"/>
-      <c r="L48" s="125" t="s">
+      <c r="L48" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="126"/>
+      <c r="M48" s="199"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -3606,12 +3632,12 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
       <c r="H49" s="61"/>
       <c r="I49" s="61"/>
       <c r="J49" s="61"/>
@@ -3633,12 +3659,12 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
       <c r="H50" s="61"/>
       <c r="I50" s="61"/>
       <c r="J50" s="61"/>
@@ -3662,12 +3688,12 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
-      <c r="B51" s="191"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="165"/>
       <c r="H51" s="61"/>
       <c r="I51" s="61"/>
       <c r="J51" s="61"/>
@@ -3689,16 +3715,16 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
-      <c r="B52" s="191"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="165"/>
       <c r="H52" s="61"/>
       <c r="I52" s="61"/>
-      <c r="J52" s="191"/>
-      <c r="K52" s="191"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
       <c r="L52" s="48"/>
       <c r="M52" s="48"/>
       <c r="N52" s="13"/>
@@ -3716,16 +3742,16 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
       <c r="H53" s="61"/>
       <c r="I53" s="61"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
       <c r="L53" s="48" t="s">
         <v>47</v>
       </c>
@@ -3745,16 +3771,16 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
       <c r="H54" s="61"/>
       <c r="I54" s="61"/>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="165"/>
       <c r="L54" s="48"/>
       <c r="M54" s="48"/>
       <c r="N54" s="13"/>
@@ -3772,16 +3798,16 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
-      <c r="G55" s="191"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
       <c r="H55" s="61"/>
       <c r="I55" s="61"/>
-      <c r="J55" s="191"/>
-      <c r="K55" s="191"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="13"/>
@@ -3799,16 +3825,16 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
-      <c r="B56" s="191"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
       <c r="H56" s="61"/>
       <c r="I56" s="61"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
       <c r="L56" s="48"/>
       <c r="M56" s="48"/>
       <c r="N56" s="13"/>
@@ -3825,19 +3851,19 @@
       <c r="Y56" s="39"/>
     </row>
     <row r="57" spans="1:25" ht="21" customHeight="1">
-      <c r="A57" s="192" t="s">
+      <c r="A57" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="192"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="192"/>
-      <c r="E57" s="192"/>
-      <c r="F57" s="192"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="194"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="119"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -3854,21 +3880,21 @@
       <c r="Y57" s="39"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="233" t="s">
+      <c r="A58" s="321" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="130"/>
-      <c r="C58" s="194"/>
-      <c r="D58" s="235"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="194"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="195" t="s">
+      <c r="H58" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
-      <c r="K58" s="197"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="149"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
@@ -3885,15 +3911,15 @@
       <c r="Y58" s="39"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="234"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="236"/>
-      <c r="E59" s="237"/>
-      <c r="F59" s="238"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
+      <c r="A59" s="123"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="116"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
       <c r="N59" s="13"/>
       <c r="O59" s="48"/>
       <c r="P59" s="13"/>
@@ -3908,27 +3934,27 @@
       <c r="Y59" s="39"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="322" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="67" t="s">
+      <c r="H60" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="I60" s="76" t="s">
+      <c r="I60" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="J60" s="198" t="s">
+      <c r="J60" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="197"/>
-      <c r="L60" s="199"/>
-      <c r="M60" s="199"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
       <c r="N60" s="13"/>
       <c r="O60" s="48"/>
       <c r="P60" s="13"/>
@@ -3943,24 +3969,24 @@
       <c r="Y60" s="39"/>
     </row>
     <row r="61" spans="1:25" ht="24" customHeight="1">
-      <c r="A61" s="200" t="str">
+      <c r="A61" s="159" t="str">
         <f>A36</f>
         <v>SALES ORDER - CREDIT SALES</v>
       </c>
-      <c r="B61" s="201"/>
-      <c r="C61" s="202"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="204"/>
+      <c r="B61" s="160"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="162"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="163"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="68">
+      <c r="H61" s="67">
         <v>1000</v>
       </c>
-      <c r="I61" s="77"/>
-      <c r="J61" s="205"/>
-      <c r="K61" s="197"/>
-      <c r="L61" s="206"/>
-      <c r="M61" s="206"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
       <c r="N61" s="13"/>
       <c r="O61" s="48"/>
       <c r="P61" s="13"/>
@@ -3975,24 +4001,24 @@
       <c r="Y61" s="39"/>
     </row>
     <row r="62" spans="1:25" ht="21" customHeight="1">
-      <c r="A62" s="239" t="str">
+      <c r="A62" s="106" t="str">
         <f>A42</f>
         <v>DISCOUNTS ( WHOLE SALE - FUEL)</v>
       </c>
-      <c r="B62" s="240"/>
-      <c r="C62" s="241"/>
-      <c r="D62" s="242"/>
-      <c r="E62" s="243"/>
-      <c r="F62" s="244"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="68">
+      <c r="B62" s="107"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="67">
         <v>500</v>
       </c>
-      <c r="I62" s="77"/>
-      <c r="J62" s="205"/>
-      <c r="K62" s="197"/>
-      <c r="L62" s="206"/>
-      <c r="M62" s="206"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
       <c r="N62" s="13"/>
       <c r="O62" s="48"/>
       <c r="P62" s="13"/>
@@ -4007,21 +4033,21 @@
       <c r="Y62" s="39"/>
     </row>
     <row r="63" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A63" s="239"/>
-      <c r="B63" s="240"/>
-      <c r="C63" s="241"/>
-      <c r="D63" s="237"/>
-      <c r="E63" s="237"/>
-      <c r="F63" s="238"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="68">
+      <c r="A63" s="106"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="67">
         <v>200</v>
       </c>
-      <c r="I63" s="77"/>
-      <c r="J63" s="205"/>
-      <c r="K63" s="197"/>
-      <c r="L63" s="206"/>
-      <c r="M63" s="206"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
       <c r="N63" s="13"/>
       <c r="O63" s="48"/>
       <c r="P63" s="13"/>
@@ -4036,24 +4062,24 @@
       <c r="Y63" s="39"/>
     </row>
     <row r="64" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A64" s="239" t="str">
+      <c r="A64" s="106" t="str">
         <f>A46</f>
         <v>OTHERS</v>
       </c>
-      <c r="B64" s="240"/>
-      <c r="C64" s="241"/>
-      <c r="D64" s="248"/>
-      <c r="E64" s="243"/>
-      <c r="F64" s="244"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="68">
+      <c r="B64" s="107"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="67">
         <v>100</v>
       </c>
-      <c r="I64" s="77"/>
-      <c r="J64" s="205"/>
-      <c r="K64" s="197"/>
-      <c r="L64" s="206"/>
-      <c r="M64" s="206"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
       <c r="N64" s="13"/>
       <c r="O64" s="48"/>
       <c r="P64" s="13"/>
@@ -4068,21 +4094,21 @@
       <c r="Y64" s="39"/>
     </row>
     <row r="65" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A65" s="245"/>
-      <c r="B65" s="246"/>
-      <c r="C65" s="247"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="238"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="68">
+      <c r="A65" s="109"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="67">
         <v>50</v>
       </c>
-      <c r="I65" s="77"/>
-      <c r="J65" s="205"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="206"/>
-      <c r="M65" s="206"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
       <c r="N65" s="13"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
@@ -4097,27 +4123,27 @@
       <c r="Y65" s="39"/>
     </row>
     <row r="66" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A66" s="233" t="s">
+      <c r="A66" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="130"/>
-      <c r="C66" s="194"/>
-      <c r="D66" s="249"/>
-      <c r="E66" s="243"/>
-      <c r="F66" s="244"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="68">
+      <c r="B66" s="118"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="67">
         <v>20</v>
       </c>
-      <c r="I66" s="77"/>
-      <c r="J66" s="205"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="206"/>
-      <c r="M66" s="206"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
       <c r="N66" s="13"/>
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
-      <c r="Q66" s="82"/>
+      <c r="Q66" s="81"/>
       <c r="R66" s="13"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
@@ -4128,25 +4154,25 @@
       <c r="Y66" s="39"/>
     </row>
     <row r="67" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A67" s="236"/>
-      <c r="B67" s="237"/>
-      <c r="C67" s="238"/>
-      <c r="D67" s="236"/>
-      <c r="E67" s="237"/>
-      <c r="F67" s="238"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="68">
+      <c r="A67" s="120"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="67">
         <v>10</v>
       </c>
-      <c r="I67" s="77"/>
-      <c r="J67" s="205"/>
-      <c r="K67" s="197"/>
-      <c r="L67" s="206"/>
-      <c r="M67" s="206"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
       <c r="N67" s="13"/>
       <c r="O67" s="48"/>
       <c r="P67" s="13"/>
-      <c r="Q67" s="83"/>
+      <c r="Q67" s="82"/>
       <c r="R67" s="13"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
@@ -4157,23 +4183,23 @@
       <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="1:25" ht="21" customHeight="1">
-      <c r="A68" s="250" t="s">
+      <c r="A68" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="243"/>
-      <c r="C68" s="244"/>
-      <c r="D68" s="249"/>
-      <c r="E68" s="243"/>
-      <c r="F68" s="244"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="68">
+      <c r="B68" s="113"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="67">
         <v>5</v>
       </c>
-      <c r="I68" s="77"/>
-      <c r="J68" s="205"/>
-      <c r="K68" s="197"/>
-      <c r="L68" s="206"/>
-      <c r="M68" s="206"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
       <c r="N68" s="13"/>
       <c r="O68" s="48"/>
       <c r="P68" s="13"/>
@@ -4188,23 +4214,23 @@
       <c r="Y68" s="39"/>
     </row>
     <row r="69" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A69" s="236"/>
-      <c r="B69" s="237"/>
-      <c r="C69" s="238"/>
-      <c r="D69" s="236"/>
-      <c r="E69" s="237"/>
-      <c r="F69" s="238"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="68">
+      <c r="A69" s="120"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="67">
         <v>1</v>
       </c>
-      <c r="I69" s="77"/>
-      <c r="J69" s="205"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="206" t="s">
+      <c r="I69" s="76"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="M69" s="206"/>
+      <c r="M69" s="147"/>
       <c r="N69" s="13"/>
       <c r="O69" s="48"/>
       <c r="P69" s="13"/>
@@ -4219,25 +4245,25 @@
       <c r="Y69" s="39"/>
     </row>
     <row r="70" spans="1:25" ht="21" customHeight="1">
-      <c r="A70" s="250" t="s">
+      <c r="A70" s="324" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="243"/>
-      <c r="C70" s="244"/>
-      <c r="D70" s="251"/>
-      <c r="E70" s="243"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="68">
+      <c r="B70" s="113"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="67">
         <v>0.25</v>
       </c>
-      <c r="I70" s="78"/>
-      <c r="J70" s="205"/>
-      <c r="K70" s="197"/>
-      <c r="L70" s="207" t="s">
+      <c r="I70" s="77"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="M70" s="207"/>
+      <c r="M70" s="150"/>
       <c r="N70" s="13"/>
       <c r="O70" s="48"/>
       <c r="P70" s="51"/>
@@ -4252,20 +4278,20 @@
       <c r="Y70" s="39"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="234"/>
-      <c r="B71" s="250"/>
-      <c r="C71" s="194"/>
-      <c r="D71" s="234"/>
-      <c r="E71" s="251"/>
-      <c r="F71" s="194"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="208" t="s">
+      <c r="A71" s="123"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="197"/>
-      <c r="J71" s="205"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="79"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="78"/>
       <c r="M71" s="52"/>
       <c r="N71" s="13"/>
       <c r="O71" s="48"/>
@@ -4281,22 +4307,22 @@
       <c r="Y71" s="39"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="236"/>
-      <c r="B72" s="237"/>
-      <c r="C72" s="238"/>
-      <c r="D72" s="236"/>
-      <c r="E72" s="237"/>
-      <c r="F72" s="238"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="209" t="s">
+      <c r="A72" s="120"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="115"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="197"/>
-      <c r="J72" s="210"/>
-      <c r="K72" s="197"/>
-      <c r="L72" s="211"/>
-      <c r="M72" s="211"/>
-      <c r="N72" s="211"/>
+      <c r="I72" s="149"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
       <c r="O72" s="48"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -4310,19 +4336,19 @@
       <c r="Y72" s="39"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="70"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="41"/>
       <c r="K73" s="41"/>
       <c r="L73" s="41"/>
-      <c r="M73" s="69"/>
+      <c r="M73" s="68"/>
       <c r="N73" s="13"/>
       <c r="O73" s="48"/>
       <c r="P73" s="13"/>
@@ -4349,7 +4375,7 @@
       <c r="J74" s="41"/>
       <c r="K74" s="41"/>
       <c r="L74" s="41"/>
-      <c r="M74" s="69" t="s">
+      <c r="M74" s="68" t="s">
         <v>25</v>
       </c>
       <c r="N74" s="13"/>
@@ -4367,18 +4393,18 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="212"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="213"/>
-      <c r="F75" s="130"/>
-      <c r="G75" s="130"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="145"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="44"/>
       <c r="K75" s="41"/>
       <c r="L75" s="41"/>
-      <c r="M75" s="69"/>
+      <c r="M75" s="68"/>
       <c r="N75" s="13"/>
       <c r="O75" s="48"/>
       <c r="P75" s="13"/>
@@ -4394,16 +4420,16 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="80"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="147"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="79"/>
       <c r="L76" s="39"/>
       <c r="M76" s="39"/>
       <c r="N76" s="39"/>
@@ -4421,16 +4447,16 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="13"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="206"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="80"/>
+      <c r="B77" s="146"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="79"/>
       <c r="L77" s="39"/>
       <c r="M77" s="39"/>
       <c r="N77" s="39"/>
@@ -4448,16 +4474,16 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="39"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="206"/>
-      <c r="F78" s="206"/>
-      <c r="G78" s="206"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="80"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="79"/>
       <c r="L78" s="39"/>
       <c r="M78" s="39"/>
       <c r="N78" s="39"/>
@@ -4475,16 +4501,16 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="39"/>
-      <c r="B79" s="132"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="130"/>
-      <c r="E79" s="206"/>
-      <c r="F79" s="206"/>
-      <c r="G79" s="206"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="80"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="79"/>
       <c r="L79" s="39"/>
       <c r="M79" s="39"/>
       <c r="N79" s="39"/>
@@ -4502,15 +4528,15 @@
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="39"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="81"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="80"/>
       <c r="K80" s="39"/>
       <c r="L80" s="39"/>
       <c r="M80" s="39"/>
@@ -4532,12 +4558,12 @@
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="81"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="80"/>
       <c r="K81" s="39"/>
       <c r="L81" s="39"/>
       <c r="M81" s="39"/>
@@ -4563,8 +4589,8 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
-      <c r="I82" s="72"/>
-      <c r="J82" s="81"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="80"/>
       <c r="K82" s="39"/>
       <c r="L82" s="39"/>
       <c r="M82" s="39"/>
@@ -4972,7 +4998,7 @@
       <c r="J97" s="39"/>
       <c r="K97" s="59"/>
       <c r="L97" s="39"/>
-      <c r="M97" s="84"/>
+      <c r="M97" s="83"/>
       <c r="N97" s="39"/>
       <c r="O97" s="39"/>
       <c r="P97" s="39"/>
@@ -4999,7 +5025,7 @@
       <c r="J98" s="39"/>
       <c r="K98" s="39"/>
       <c r="L98" s="39"/>
-      <c r="M98" s="84"/>
+      <c r="M98" s="83"/>
       <c r="N98" s="39"/>
       <c r="O98" s="39"/>
       <c r="P98" s="39"/>
@@ -5026,7 +5052,7 @@
       <c r="J99" s="39"/>
       <c r="K99" s="39"/>
       <c r="L99" s="39"/>
-      <c r="M99" s="84"/>
+      <c r="M99" s="83"/>
       <c r="N99" s="39"/>
       <c r="O99" s="39"/>
       <c r="P99" s="39"/>
@@ -5051,7 +5077,7 @@
       <c r="H100" s="39"/>
       <c r="I100" s="39"/>
       <c r="J100" s="39"/>
-      <c r="K100" s="85"/>
+      <c r="K100" s="84"/>
       <c r="L100" s="39"/>
       <c r="M100" s="39"/>
       <c r="N100" s="39"/>
@@ -5107,7 +5133,7 @@
       <c r="J102" s="39"/>
       <c r="K102" s="39"/>
       <c r="L102" s="39"/>
-      <c r="M102" s="84"/>
+      <c r="M102" s="83"/>
       <c r="N102" s="39"/>
       <c r="O102" s="39"/>
       <c r="P102" s="39"/>
@@ -5132,9 +5158,9 @@
       <c r="H103" s="39"/>
       <c r="I103" s="39"/>
       <c r="J103" s="39"/>
-      <c r="K103" s="85"/>
+      <c r="K103" s="84"/>
       <c r="L103" s="39"/>
-      <c r="M103" s="84"/>
+      <c r="M103" s="83"/>
       <c r="N103" s="39"/>
       <c r="O103" s="39"/>
       <c r="P103" s="39"/>
@@ -5161,7 +5187,7 @@
       <c r="J104" s="39"/>
       <c r="K104" s="39"/>
       <c r="L104" s="39"/>
-      <c r="M104" s="84"/>
+      <c r="M104" s="83"/>
       <c r="N104" s="39"/>
       <c r="O104" s="39"/>
       <c r="P104" s="39"/>
@@ -5186,9 +5212,9 @@
       <c r="H105" s="39"/>
       <c r="I105" s="39"/>
       <c r="J105" s="39"/>
-      <c r="K105" s="85"/>
+      <c r="K105" s="84"/>
       <c r="L105" s="39"/>
-      <c r="M105" s="84"/>
+      <c r="M105" s="83"/>
       <c r="N105" s="39"/>
       <c r="O105" s="39"/>
       <c r="P105" s="39"/>
@@ -5215,7 +5241,7 @@
       <c r="J106" s="39"/>
       <c r="K106" s="39"/>
       <c r="L106" s="39"/>
-      <c r="M106" s="86"/>
+      <c r="M106" s="85"/>
       <c r="N106" s="39"/>
       <c r="O106" s="39"/>
       <c r="P106" s="39"/>
@@ -5321,7 +5347,7 @@
       <c r="H110" s="39"/>
       <c r="I110" s="39"/>
       <c r="J110" s="39"/>
-      <c r="K110" s="85"/>
+      <c r="K110" s="84"/>
       <c r="L110" s="39"/>
       <c r="M110" s="39"/>
       <c r="N110" s="39"/>
@@ -10314,181 +10340,6 @@
     <row r="873" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="199">
-    <mergeCell ref="A64:C65"/>
-    <mergeCell ref="D64:F65"/>
-    <mergeCell ref="A66:C67"/>
-    <mergeCell ref="D66:F67"/>
-    <mergeCell ref="A68:C69"/>
-    <mergeCell ref="D68:F69"/>
-    <mergeCell ref="A70:C72"/>
-    <mergeCell ref="D70:F72"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A34:K35"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="D58:F59"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D62:F63"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="A1:K1"/>
@@ -10513,9 +10364,184 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D62:F63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A34:K35"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="D58:F59"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A64:C65"/>
+    <mergeCell ref="D64:F65"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:F67"/>
+    <mergeCell ref="A68:C69"/>
+    <mergeCell ref="D68:F69"/>
+    <mergeCell ref="A70:C72"/>
+    <mergeCell ref="D70:F72"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.30277777777777798" right="0.30277777777777798" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="portrait"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10523,8 +10549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075C2E48-318A-4A81-8366-DE79B25A9DE0}">
   <dimension ref="A1:Y923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -10550,19 +10576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -10715,17 +10741,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="130"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="41"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="130"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="118"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -10740,17 +10766,17 @@
       <c r="Y6" s="39"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="313" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="312" t="s">
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="211" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -10759,14 +10785,14 @@
       <c r="I7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="314" t="s">
+      <c r="J7" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="244"/>
-      <c r="L7" s="315" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="316"/>
+      <c r="M7" s="215"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -10781,27 +10807,27 @@
       <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="236"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="313" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="310" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="311"/>
-      <c r="G8" s="236"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="130"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="316"/>
-      <c r="M8" s="316"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -10822,14 +10848,14 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="309">
+      <c r="C9" s="218">
         <v>45</v>
       </c>
-      <c r="D9" s="197"/>
-      <c r="E9" s="309">
+      <c r="D9" s="149"/>
+      <c r="E9" s="218">
         <v>78</v>
       </c>
-      <c r="F9" s="197"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -10840,15 +10866,15 @@
       <c r="I9" s="1">
         <v>78</v>
       </c>
-      <c r="J9" s="306">
+      <c r="J9" s="219">
         <f>I9*H9</f>
         <v>2496</v>
       </c>
-      <c r="K9" s="307"/>
-      <c r="L9" s="141" t="s">
+      <c r="K9" s="220"/>
+      <c r="L9" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="130"/>
+      <c r="M9" s="118"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -10869,21 +10895,21 @@
       <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="308"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="309"/>
-      <c r="F10" s="197"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="306"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="141" t="s">
+      <c r="J10" s="219"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="141"/>
+      <c r="M10" s="200"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -10906,19 +10932,19 @@
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="308"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="309"/>
-      <c r="F11" s="197"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="306"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="141" t="s">
+      <c r="J11" s="219"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="141"/>
+      <c r="M11" s="200"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -10941,17 +10967,17 @@
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="308"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="197"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="149"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="306"/>
-      <c r="K12" s="307"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -10972,17 +10998,17 @@
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="305"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="197"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="45"/>
-      <c r="J13" s="306"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
+      <c r="J13" s="219"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -11003,17 +11029,17 @@
       <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="305"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="197"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="149"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="45"/>
-      <c r="J14" s="306"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
+      <c r="J14" s="219"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -11028,24 +11054,24 @@
       <c r="Y14" s="39"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="296" t="s">
+      <c r="A15" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="297"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="297"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="297"/>
-      <c r="G15" s="298"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="226"/>
       <c r="H15" s="23"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="304">
+      <c r="J15" s="228">
         <f>SUM(J9:K14)</f>
         <v>2496</v>
       </c>
-      <c r="K15" s="238"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -11062,8 +11088,8 @@
     <row r="16" spans="1:25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -11071,8 +11097,8 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -11093,17 +11119,17 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="303"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="197"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="303"/>
-      <c r="K17" s="197"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -11124,17 +11150,17 @@
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="303"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="197"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="303"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -11149,21 +11175,21 @@
       <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="296" t="s">
+      <c r="A19" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="297"/>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="298"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="226"/>
       <c r="H19" s="27"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -11191,8 +11217,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -11213,17 +11239,17 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="303"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="197"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="303"/>
-      <c r="K21" s="197"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -11244,17 +11270,17 @@
       <c r="B22" s="20">
         <v>2</v>
       </c>
-      <c r="C22" s="303"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="197"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="149"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="303"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
       <c r="N22" s="13"/>
       <c r="O22" s="48"/>
       <c r="P22" s="13"/>
@@ -11275,17 +11301,17 @@
       <c r="B23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="303"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="197"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="303"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -11306,17 +11332,17 @@
       <c r="B24" s="20">
         <v>4</v>
       </c>
-      <c r="C24" s="303"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="197"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="149"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="303"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -11331,23 +11357,23 @@
       <c r="Y24" s="39"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="296" t="s">
+      <c r="A25" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="297"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="297"/>
-      <c r="F25" s="297"/>
-      <c r="G25" s="298"/>
+      <c r="B25" s="225"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="225"/>
+      <c r="E25" s="225"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="226"/>
       <c r="H25" s="28"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="299"/>
-      <c r="K25" s="197"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="130"/>
+      <c r="J25" s="227"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -11371,8 +11397,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="49"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -11387,20 +11413,20 @@
       <c r="Y26" s="39"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="243"/>
-      <c r="K27" s="244"/>
-      <c r="L27" s="301" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="230" t="s">
         <v>65</v>
       </c>
       <c r="M27" s="48"/>
@@ -11418,20 +11444,20 @@
       <c r="Y27" s="39"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="302" t="s">
+      <c r="A28" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="301"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="230"/>
       <c r="M28" s="50"/>
       <c r="N28" s="13"/>
       <c r="O28" s="51"/>
@@ -11447,25 +11473,25 @@
       <c r="Y28" s="39"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="284" t="s">
+      <c r="A29" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="285"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="285"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="285"/>
-      <c r="H29" s="288" t="s">
+      <c r="B29" s="238"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="290" t="s">
+      <c r="I29" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="292" t="s">
+      <c r="J29" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="293"/>
+      <c r="K29" s="246"/>
       <c r="L29" s="52"/>
       <c r="M29" s="53"/>
       <c r="N29" s="54"/>
@@ -11482,17 +11508,17 @@
       <c r="Y29" s="39"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="286"/>
-      <c r="B30" s="287"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="289"/>
-      <c r="I30" s="291"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="295"/>
+      <c r="A30" s="239"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="240"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="248"/>
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
       <c r="N30" s="55"/>
@@ -11509,17 +11535,17 @@
       <c r="Y30" s="39"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="279"/>
-      <c r="B31" s="280"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
-      <c r="E31" s="280"/>
-      <c r="F31" s="280"/>
-      <c r="G31" s="281"/>
+      <c r="A31" s="232"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
+      <c r="G31" s="234"/>
       <c r="H31" s="31"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="282"/>
-      <c r="K31" s="238"/>
+      <c r="J31" s="235"/>
+      <c r="K31" s="116"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
@@ -11536,17 +11562,17 @@
       <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="279"/>
-      <c r="B32" s="280"/>
-      <c r="C32" s="280"/>
-      <c r="D32" s="280"/>
-      <c r="E32" s="280"/>
-      <c r="F32" s="280"/>
-      <c r="G32" s="281"/>
+      <c r="A32" s="232"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="234"/>
       <c r="H32" s="32"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="282"/>
-      <c r="K32" s="238"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="116"/>
       <c r="L32" s="48"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -11563,17 +11589,17 @@
       <c r="Y32" s="39"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="279"/>
-      <c r="B33" s="280"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="280"/>
-      <c r="E33" s="280"/>
-      <c r="F33" s="280"/>
-      <c r="G33" s="281"/>
+      <c r="A33" s="232"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="234"/>
       <c r="H33" s="32"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="283"/>
-      <c r="K33" s="197"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="149"/>
       <c r="L33" s="48"/>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
@@ -11590,17 +11616,17 @@
       <c r="Y33" s="39"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="279"/>
-      <c r="B34" s="280"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="280"/>
-      <c r="E34" s="280"/>
-      <c r="F34" s="280"/>
-      <c r="G34" s="281"/>
+      <c r="A34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="234"/>
       <c r="H34" s="32"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="283"/>
-      <c r="K34" s="197"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="149"/>
       <c r="L34" s="48"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
@@ -11617,20 +11643,20 @@
       <c r="Y34" s="39"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="266" t="s">
+      <c r="A35" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="267"/>
-      <c r="I35" s="267"/>
-      <c r="J35" s="267"/>
-      <c r="K35" s="268"/>
-      <c r="L35" s="269" t="s">
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="250"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="250"/>
+      <c r="J35" s="250"/>
+      <c r="K35" s="251"/>
+      <c r="L35" s="252" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="50"/>
@@ -11648,20 +11674,20 @@
       <c r="Y35" s="39"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="271" t="s">
+      <c r="A36" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="272"/>
-      <c r="I36" s="272"/>
-      <c r="J36" s="272"/>
-      <c r="K36" s="273"/>
-      <c r="L36" s="270"/>
+      <c r="B36" s="255"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="255"/>
+      <c r="E36" s="255"/>
+      <c r="F36" s="255"/>
+      <c r="G36" s="255"/>
+      <c r="H36" s="255"/>
+      <c r="I36" s="255"/>
+      <c r="J36" s="255"/>
+      <c r="K36" s="256"/>
+      <c r="L36" s="253"/>
       <c r="M36" s="50"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -11677,19 +11703,19 @@
       <c r="Y36" s="39"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="274" t="s">
+      <c r="A37" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="237"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="237"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="238"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="116"/>
       <c r="L37" s="52"/>
       <c r="M37" s="52"/>
       <c r="N37" s="48"/>
@@ -11706,33 +11732,33 @@
       <c r="Y37" s="39"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="275" t="s">
+      <c r="C38" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="276"/>
-      <c r="E38" s="277" t="s">
+      <c r="D38" s="259"/>
+      <c r="E38" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="278"/>
-      <c r="G38" s="115" t="s">
+      <c r="F38" s="261"/>
+      <c r="G38" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="115" t="s">
+      <c r="H38" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="116" t="s">
+      <c r="I38" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="116" t="s">
+      <c r="J38" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="116" t="s">
+      <c r="K38" s="97" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="53"/>
@@ -11753,10 +11779,10 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="172"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="183"/>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -11782,10 +11808,10 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="172"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="183"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="58"/>
@@ -11811,10 +11837,10 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="172"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="183"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="I41" s="58"/>
@@ -11838,10 +11864,10 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="172"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="183"/>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="I42" s="58"/>
@@ -11865,10 +11891,10 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="172"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="183"/>
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="58"/>
@@ -11890,15 +11916,15 @@
       <c r="Y43" s="39"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="117"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="37"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="259"/>
-      <c r="F44" s="260"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="267"/>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
-      <c r="I44" s="118"/>
+      <c r="I44" s="99"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="48"/>
@@ -11917,15 +11943,15 @@
       <c r="Y44" s="39"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="117"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="259"/>
-      <c r="F45" s="260"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="266"/>
+      <c r="F45" s="267"/>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
-      <c r="I45" s="118"/>
+      <c r="I45" s="99"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="48"/>
@@ -11944,15 +11970,15 @@
       <c r="Y45" s="39"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="117"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="37"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="118"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="99"/>
       <c r="J46" s="36"/>
       <c r="K46" s="36"/>
       <c r="L46" s="48"/>
@@ -11971,19 +11997,19 @@
       <c r="Y46" s="39"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="173" t="s">
+      <c r="A47" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="174"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="175"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="186"/>
       <c r="L47" s="262"/>
       <c r="M47" s="56"/>
       <c r="N47" s="13"/>
@@ -12000,7 +12026,7 @@
       <c r="Y47" s="39"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="102" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="263" t="s">
@@ -12012,7 +12038,7 @@
       </c>
       <c r="E48" s="264"/>
       <c r="F48" s="264"/>
-      <c r="G48" s="122" t="s">
+      <c r="G48" s="103" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="265" t="s">
@@ -12038,16 +12064,16 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
       <c r="G49" s="61"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="190"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="191"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="181"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -12063,16 +12089,16 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
       <c r="G50" s="61"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="191"/>
-      <c r="K50" s="191"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="165"/>
       <c r="L50" s="13" t="s">
         <v>71</v>
       </c>
@@ -12090,16 +12116,16 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
-      <c r="B51" s="191"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
       <c r="G51" s="61"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="190"/>
-      <c r="J51" s="191"/>
-      <c r="K51" s="191"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
@@ -12115,16 +12141,16 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
-      <c r="B52" s="191"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
       <c r="G52" s="61"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="190"/>
-      <c r="J52" s="191"/>
-      <c r="K52" s="191"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
@@ -12140,16 +12166,16 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
       <c r="G53" s="61"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="190"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
@@ -12165,16 +12191,16 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
       <c r="G54" s="61"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="190"/>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="165"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
@@ -12190,16 +12216,16 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
-      <c r="B55" s="191"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="191"/>
-      <c r="E55" s="191"/>
-      <c r="F55" s="191"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
       <c r="G55" s="61"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="191"/>
-      <c r="K55" s="191"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="13"/>
@@ -12216,19 +12242,19 @@
       <c r="Y55" s="39"/>
     </row>
     <row r="56" spans="1:25" ht="21" customHeight="1">
-      <c r="A56" s="258" t="s">
+      <c r="A56" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="192"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="194"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="119"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
@@ -12245,24 +12271,24 @@
       <c r="Y56" s="39"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="233" t="s">
+      <c r="A57" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="194"/>
-      <c r="D57" s="235" t="str">
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="143" t="str">
         <f>L7</f>
         <v>Sec1</v>
       </c>
-      <c r="E57" s="130"/>
-      <c r="F57" s="194"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="119"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="195" t="s">
+      <c r="H57" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="196"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="197"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="149"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -12279,15 +12305,15 @@
       <c r="Y57" s="39"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="236"/>
-      <c r="B58" s="237"/>
-      <c r="C58" s="238"/>
-      <c r="D58" s="236"/>
-      <c r="E58" s="237"/>
-      <c r="F58" s="238"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="116"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
       <c r="N58" s="13"/>
       <c r="O58" s="48"/>
       <c r="P58" s="13"/>
@@ -12302,30 +12328,30 @@
       <c r="Y58" s="39"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="257" t="s">
+      <c r="A59" s="269" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="243"/>
-      <c r="C59" s="244"/>
-      <c r="D59" s="256" t="str">
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="270" t="str">
         <f>L27</f>
         <v>sec2</v>
       </c>
-      <c r="E59" s="243"/>
-      <c r="F59" s="244"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="114"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="67" t="s">
+      <c r="H59" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="J59" s="198" t="s">
+      <c r="J59" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="197"/>
-      <c r="L59" s="199"/>
-      <c r="M59" s="199"/>
+      <c r="K59" s="149"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
       <c r="N59" s="13"/>
       <c r="O59" s="48"/>
       <c r="P59" s="13"/>
@@ -12340,26 +12366,26 @@
       <c r="Y59" s="39"/>
     </row>
     <row r="60" spans="1:25" ht="24" customHeight="1">
-      <c r="A60" s="236"/>
-      <c r="B60" s="237"/>
-      <c r="C60" s="238"/>
-      <c r="D60" s="236"/>
-      <c r="E60" s="237"/>
-      <c r="F60" s="238"/>
+      <c r="A60" s="120"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="116"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="68">
+      <c r="H60" s="67">
         <v>1000</v>
       </c>
-      <c r="I60" s="77">
+      <c r="I60" s="76">
         <v>1</v>
       </c>
-      <c r="J60" s="205">
+      <c r="J60" s="148">
         <f>1000*I60</f>
         <v>1000</v>
       </c>
-      <c r="K60" s="197"/>
-      <c r="L60" s="206"/>
-      <c r="M60" s="206"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
       <c r="N60" s="13"/>
       <c r="O60" s="48"/>
       <c r="P60" s="13"/>
@@ -12374,28 +12400,28 @@
       <c r="Y60" s="39"/>
     </row>
     <row r="61" spans="1:25" ht="21" customHeight="1">
-      <c r="A61" s="255" t="s">
+      <c r="A61" s="272" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="243"/>
-      <c r="C61" s="244"/>
-      <c r="D61" s="249"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="244"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="68">
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="67">
         <v>500</v>
       </c>
-      <c r="I61" s="77">
+      <c r="I61" s="76">
         <v>1</v>
       </c>
-      <c r="J61" s="205">
+      <c r="J61" s="148">
         <f>500*I61</f>
         <v>500</v>
       </c>
-      <c r="K61" s="197"/>
-      <c r="L61" s="206"/>
-      <c r="M61" s="206"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
       <c r="N61" s="13"/>
       <c r="O61" s="48"/>
       <c r="P61" s="13"/>
@@ -12410,26 +12436,26 @@
       <c r="Y61" s="39"/>
     </row>
     <row r="62" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A62" s="236"/>
-      <c r="B62" s="237"/>
-      <c r="C62" s="238"/>
-      <c r="D62" s="236"/>
-      <c r="E62" s="237"/>
-      <c r="F62" s="238"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="68">
+      <c r="A62" s="120"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="115"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="67">
         <v>200</v>
       </c>
-      <c r="I62" s="77">
+      <c r="I62" s="76">
         <v>1</v>
       </c>
-      <c r="J62" s="205">
+      <c r="J62" s="148">
         <f>200*I62</f>
         <v>200</v>
       </c>
-      <c r="K62" s="197"/>
-      <c r="L62" s="206"/>
-      <c r="M62" s="206"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
       <c r="N62" s="13"/>
       <c r="O62" s="48"/>
       <c r="P62" s="13"/>
@@ -12444,31 +12470,31 @@
       <c r="Y62" s="39"/>
     </row>
     <row r="63" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A63" s="255" t="s">
+      <c r="A63" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="243"/>
-      <c r="C63" s="244"/>
-      <c r="D63" s="256" t="str">
+      <c r="B63" s="113"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="270" t="str">
         <f>L35</f>
         <v>sec3</v>
       </c>
-      <c r="E63" s="243"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="68">
+      <c r="E63" s="113"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="67">
         <v>100</v>
       </c>
-      <c r="I63" s="77">
+      <c r="I63" s="76">
         <v>1</v>
       </c>
-      <c r="J63" s="205">
+      <c r="J63" s="148">
         <f>100*I63</f>
         <v>100</v>
       </c>
-      <c r="K63" s="197"/>
-      <c r="L63" s="206"/>
-      <c r="M63" s="206"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
       <c r="N63" s="13"/>
       <c r="O63" s="48"/>
       <c r="P63" s="13"/>
@@ -12483,26 +12509,26 @@
       <c r="Y63" s="39"/>
     </row>
     <row r="64" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A64" s="236"/>
-      <c r="B64" s="237"/>
-      <c r="C64" s="238"/>
-      <c r="D64" s="236"/>
-      <c r="E64" s="237"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="68">
+      <c r="A64" s="120"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="67">
         <v>50</v>
       </c>
-      <c r="I64" s="77">
+      <c r="I64" s="76">
         <v>1</v>
       </c>
-      <c r="J64" s="205">
+      <c r="J64" s="148">
         <f>50*I64</f>
         <v>50</v>
       </c>
-      <c r="K64" s="197"/>
-      <c r="L64" s="206"/>
-      <c r="M64" s="206"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
       <c r="N64" s="13"/>
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
@@ -12517,32 +12543,32 @@
       <c r="Y64" s="39"/>
     </row>
     <row r="65" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A65" s="255" t="s">
+      <c r="A65" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="243"/>
-      <c r="C65" s="244"/>
-      <c r="D65" s="249"/>
-      <c r="E65" s="243"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="68">
+      <c r="B65" s="113"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="67">
         <v>20</v>
       </c>
-      <c r="I65" s="77">
+      <c r="I65" s="76">
         <v>1</v>
       </c>
-      <c r="J65" s="205">
+      <c r="J65" s="148">
         <f>20*I65</f>
         <v>20</v>
       </c>
-      <c r="K65" s="197"/>
-      <c r="L65" s="206"/>
-      <c r="M65" s="206"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
       <c r="N65" s="13"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
-      <c r="Q65" s="82"/>
+      <c r="Q65" s="81"/>
       <c r="R65" s="13"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
@@ -12553,30 +12579,30 @@
       <c r="Y65" s="39"/>
     </row>
     <row r="66" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A66" s="236"/>
-      <c r="B66" s="237"/>
-      <c r="C66" s="238"/>
-      <c r="D66" s="236"/>
-      <c r="E66" s="237"/>
-      <c r="F66" s="238"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="68">
+      <c r="A66" s="120"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="67">
         <v>10</v>
       </c>
-      <c r="I66" s="77">
+      <c r="I66" s="76">
         <v>1</v>
       </c>
-      <c r="J66" s="205">
+      <c r="J66" s="148">
         <f>10*I66</f>
         <v>10</v>
       </c>
-      <c r="K66" s="197"/>
-      <c r="L66" s="206"/>
-      <c r="M66" s="206"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
       <c r="N66" s="13"/>
       <c r="O66" s="48"/>
       <c r="P66" s="13"/>
-      <c r="Q66" s="83"/>
+      <c r="Q66" s="82"/>
       <c r="R66" s="13"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
@@ -12587,28 +12613,28 @@
       <c r="Y66" s="39"/>
     </row>
     <row r="67" spans="1:25" ht="21" customHeight="1">
-      <c r="A67" s="255" t="s">
+      <c r="A67" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="243"/>
-      <c r="C67" s="244"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="243"/>
-      <c r="F67" s="244"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="68">
+      <c r="B67" s="113"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="67">
         <v>5</v>
       </c>
-      <c r="I67" s="77">
+      <c r="I67" s="76">
         <v>1</v>
       </c>
-      <c r="J67" s="205">
+      <c r="J67" s="148">
         <f>5*I67</f>
         <v>5</v>
       </c>
-      <c r="K67" s="197"/>
-      <c r="L67" s="206"/>
-      <c r="M67" s="206"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
       <c r="N67" s="13"/>
       <c r="O67" s="48"/>
       <c r="P67" s="13"/>
@@ -12623,28 +12649,28 @@
       <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A68" s="236"/>
-      <c r="B68" s="237"/>
-      <c r="C68" s="238"/>
-      <c r="D68" s="236"/>
-      <c r="E68" s="237"/>
-      <c r="F68" s="238"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="68">
+      <c r="A68" s="120"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="67">
         <v>1</v>
       </c>
-      <c r="I68" s="77">
+      <c r="I68" s="76">
         <v>1</v>
       </c>
-      <c r="J68" s="205">
+      <c r="J68" s="148">
         <f>1*I68</f>
         <v>1</v>
       </c>
-      <c r="K68" s="197"/>
-      <c r="L68" s="206" t="s">
+      <c r="K68" s="149"/>
+      <c r="L68" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="M68" s="206"/>
+      <c r="M68" s="147"/>
       <c r="N68" s="13"/>
       <c r="O68" s="48"/>
       <c r="P68" s="13"/>
@@ -12659,30 +12685,30 @@
       <c r="Y68" s="39"/>
     </row>
     <row r="69" spans="1:25" ht="21" customHeight="1">
-      <c r="A69" s="252" t="s">
+      <c r="A69" s="273" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="243"/>
-      <c r="C69" s="244"/>
-      <c r="D69" s="251"/>
-      <c r="E69" s="243"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="68">
+      <c r="B69" s="113"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="67">
         <v>0.25</v>
       </c>
-      <c r="I69" s="78">
+      <c r="I69" s="77">
         <v>1</v>
       </c>
-      <c r="J69" s="205">
+      <c r="J69" s="148">
         <f>0.25*I69</f>
         <v>0.25</v>
       </c>
-      <c r="K69" s="197"/>
-      <c r="L69" s="207" t="s">
+      <c r="K69" s="149"/>
+      <c r="L69" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="207"/>
+      <c r="M69" s="150"/>
       <c r="N69" s="13"/>
       <c r="O69" s="48"/>
       <c r="P69" s="51"/>
@@ -12697,23 +12723,23 @@
       <c r="Y69" s="39"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="234"/>
-      <c r="B70" s="250"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="234"/>
-      <c r="E70" s="251"/>
-      <c r="F70" s="194"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="253" t="s">
+      <c r="A70" s="123"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="274" t="s">
         <v>58</v>
       </c>
-      <c r="I70" s="197"/>
-      <c r="J70" s="205">
+      <c r="I70" s="149"/>
+      <c r="J70" s="148">
         <f>SUM(J60:K69)</f>
         <v>1886.25</v>
       </c>
-      <c r="K70" s="197"/>
-      <c r="L70" s="79"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="78"/>
       <c r="M70" s="52"/>
       <c r="N70" s="13"/>
       <c r="O70" s="48"/>
@@ -12729,22 +12755,22 @@
       <c r="Y70" s="39"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="236"/>
-      <c r="B71" s="237"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="236"/>
-      <c r="E71" s="237"/>
-      <c r="F71" s="238"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="209" t="s">
+      <c r="A71" s="120"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="I71" s="197"/>
-      <c r="J71" s="210"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="254"/>
-      <c r="M71" s="254"/>
-      <c r="N71" s="254"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="275"/>
+      <c r="M71" s="275"/>
+      <c r="N71" s="275"/>
       <c r="O71" s="48"/>
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
@@ -12758,19 +12784,19 @@
       <c r="Y71" s="39"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="70"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
       <c r="J72" s="41"/>
       <c r="K72" s="41"/>
       <c r="L72" s="41"/>
-      <c r="M72" s="69"/>
+      <c r="M72" s="68"/>
       <c r="N72" s="13"/>
       <c r="O72" s="48"/>
       <c r="P72" s="13"/>
@@ -12797,7 +12823,7 @@
       <c r="J73" s="41"/>
       <c r="K73" s="41"/>
       <c r="L73" s="41"/>
-      <c r="M73" s="69" t="s">
+      <c r="M73" s="68" t="s">
         <v>25</v>
       </c>
       <c r="N73" s="13"/>
@@ -12815,18 +12841,18 @@
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="212"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="213"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
       <c r="H74" s="26"/>
       <c r="I74" s="26"/>
       <c r="J74" s="44"/>
       <c r="K74" s="41"/>
       <c r="L74" s="41"/>
-      <c r="M74" s="69"/>
+      <c r="M74" s="68"/>
       <c r="N74" s="13"/>
       <c r="O74" s="48"/>
       <c r="P74" s="13"/>
@@ -12842,16 +12868,16 @@
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="13"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="206"/>
-      <c r="F75" s="206"/>
-      <c r="G75" s="206"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="80"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="147"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="79"/>
       <c r="L75" s="39"/>
       <c r="M75" s="39"/>
       <c r="N75" s="39"/>
@@ -12869,16 +12895,16 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="13"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="206"/>
-      <c r="F76" s="206"/>
-      <c r="G76" s="206"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="80"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="147"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+      <c r="K76" s="79"/>
       <c r="L76" s="39"/>
       <c r="M76" s="39"/>
       <c r="N76" s="39"/>
@@ -12896,16 +12922,16 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="39"/>
-      <c r="B77" s="132"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="206"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="80"/>
+      <c r="B77" s="146"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="147"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="79"/>
       <c r="L77" s="39"/>
       <c r="M77" s="39"/>
       <c r="N77" s="39"/>
@@ -12923,16 +12949,16 @@
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="39"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="206"/>
-      <c r="F78" s="206"/>
-      <c r="G78" s="206"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="80"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="79"/>
       <c r="L78" s="39"/>
       <c r="M78" s="39"/>
       <c r="N78" s="39"/>
@@ -12950,15 +12976,15 @@
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="39"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="81"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="80"/>
       <c r="K79" s="39"/>
       <c r="L79" s="39"/>
       <c r="M79" s="39"/>
@@ -12980,12 +13006,12 @@
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="81"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="80"/>
       <c r="K80" s="39"/>
       <c r="L80" s="39"/>
       <c r="M80" s="39"/>
@@ -13011,8 +13037,8 @@
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
-      <c r="I81" s="72"/>
-      <c r="J81" s="81"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="80"/>
       <c r="K81" s="39"/>
       <c r="L81" s="39"/>
       <c r="M81" s="39"/>
@@ -13420,7 +13446,7 @@
       <c r="J96" s="39"/>
       <c r="K96" s="59"/>
       <c r="L96" s="39"/>
-      <c r="M96" s="84"/>
+      <c r="M96" s="83"/>
       <c r="N96" s="39"/>
       <c r="O96" s="39"/>
       <c r="P96" s="39"/>
@@ -13449,7 +13475,7 @@
       <c r="J97" s="39"/>
       <c r="K97" s="39"/>
       <c r="L97" s="39"/>
-      <c r="M97" s="84"/>
+      <c r="M97" s="83"/>
       <c r="N97" s="39"/>
       <c r="O97" s="39"/>
       <c r="P97" s="39"/>
@@ -13476,7 +13502,7 @@
       <c r="J98" s="39"/>
       <c r="K98" s="39"/>
       <c r="L98" s="39"/>
-      <c r="M98" s="84"/>
+      <c r="M98" s="83"/>
       <c r="N98" s="39"/>
       <c r="O98" s="39"/>
       <c r="P98" s="39"/>
@@ -13501,7 +13527,7 @@
       <c r="H99" s="39"/>
       <c r="I99" s="39"/>
       <c r="J99" s="39"/>
-      <c r="K99" s="85"/>
+      <c r="K99" s="84"/>
       <c r="L99" s="39"/>
       <c r="M99" s="39"/>
       <c r="N99" s="39"/>
@@ -13557,7 +13583,7 @@
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
       <c r="L101" s="39"/>
-      <c r="M101" s="84"/>
+      <c r="M101" s="83"/>
       <c r="N101" s="39"/>
       <c r="O101" s="39"/>
       <c r="P101" s="39"/>
@@ -13582,9 +13608,9 @@
       <c r="H102" s="39"/>
       <c r="I102" s="39"/>
       <c r="J102" s="39"/>
-      <c r="K102" s="85"/>
+      <c r="K102" s="84"/>
       <c r="L102" s="39"/>
-      <c r="M102" s="84"/>
+      <c r="M102" s="83"/>
       <c r="N102" s="39"/>
       <c r="O102" s="39"/>
       <c r="P102" s="39"/>
@@ -13611,7 +13637,7 @@
       <c r="J103" s="39"/>
       <c r="K103" s="39"/>
       <c r="L103" s="39"/>
-      <c r="M103" s="84"/>
+      <c r="M103" s="83"/>
       <c r="N103" s="39"/>
       <c r="O103" s="39"/>
       <c r="P103" s="39"/>
@@ -13636,9 +13662,9 @@
       <c r="H104" s="39"/>
       <c r="I104" s="39"/>
       <c r="J104" s="39"/>
-      <c r="K104" s="85"/>
+      <c r="K104" s="84"/>
       <c r="L104" s="39"/>
-      <c r="M104" s="84"/>
+      <c r="M104" s="83"/>
       <c r="N104" s="39"/>
       <c r="O104" s="39"/>
       <c r="P104" s="39"/>
@@ -13665,7 +13691,7 @@
       <c r="J105" s="39"/>
       <c r="K105" s="39"/>
       <c r="L105" s="39"/>
-      <c r="M105" s="86"/>
+      <c r="M105" s="85"/>
       <c r="N105" s="39"/>
       <c r="O105" s="39"/>
       <c r="P105" s="39"/>
@@ -13771,7 +13797,7 @@
       <c r="H109" s="39"/>
       <c r="I109" s="39"/>
       <c r="J109" s="39"/>
-      <c r="K109" s="85"/>
+      <c r="K109" s="84"/>
       <c r="L109" s="39"/>
       <c r="M109" s="39"/>
       <c r="N109" s="39"/>
@@ -18815,41 +18841,153 @@
     <row r="923" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="A69:C71"/>
+    <mergeCell ref="D69:F71"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="A67:C68"/>
+    <mergeCell ref="D67:F68"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="A65:C66"/>
+    <mergeCell ref="D65:F66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="A63:C64"/>
+    <mergeCell ref="D63:F64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A57:C58"/>
+    <mergeCell ref="D57:F58"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J18:K18"/>
@@ -18866,153 +19004,41 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A57:C58"/>
-    <mergeCell ref="D57:F58"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="A63:C64"/>
-    <mergeCell ref="D63:F64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A67:C68"/>
-    <mergeCell ref="D67:F68"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="A65:C66"/>
-    <mergeCell ref="D65:F66"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="A69:C71"/>
-    <mergeCell ref="D69:F71"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
